--- a/BackTest/2020-01-20 BackTest BHP.xlsx
+++ b/BackTest/2020-01-20 BackTest BHP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C2" t="n">
         <v>1031</v>
       </c>
-      <c r="C2" t="n">
-        <v>1035</v>
-      </c>
       <c r="D2" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E2" t="n">
         <v>1031</v>
       </c>
       <c r="F2" t="n">
-        <v>7480.5465</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>1023.273333333333</v>
+        <v>1023.323333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="C3" t="n">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D3" t="n">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="E3" t="n">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F3" t="n">
-        <v>3228.1285</v>
+        <v>7480.5465</v>
       </c>
       <c r="G3" t="n">
-        <v>1023.44</v>
+        <v>1023.273333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1047</v>
+      </c>
+      <c r="D4" t="n">
         <v>1048</v>
       </c>
-      <c r="C4" t="n">
-        <v>1051</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1051</v>
-      </c>
       <c r="E4" t="n">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="F4" t="n">
-        <v>1310.5658</v>
+        <v>3228.1285</v>
       </c>
       <c r="G4" t="n">
-        <v>1023.69</v>
+        <v>1023.44</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C5" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D5" t="n">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="E5" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F5" t="n">
-        <v>77</v>
+        <v>1310.5658</v>
       </c>
       <c r="G5" t="n">
-        <v>1023.956666666667</v>
+        <v>1023.69</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="C6" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D6" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E6" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="G6" t="n">
-        <v>1024.29</v>
+        <v>1023.956666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C7" t="n">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="D7" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E7" t="n">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1024.756666666667</v>
+        <v>1024.29</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="C8" t="n">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="D8" t="n">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="E8" t="n">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="F8" t="n">
-        <v>85.3614</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>1024.856666666667</v>
+        <v>1024.756666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="C9" t="n">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D9" t="n">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E9" t="n">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>85.3614</v>
       </c>
       <c r="G9" t="n">
-        <v>1024.923333333333</v>
+        <v>1024.856666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C10" t="n">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="D10" t="n">
-        <v>1030</v>
+        <v>1041</v>
       </c>
       <c r="E10" t="n">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="F10" t="n">
-        <v>416.4609</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>1024.806666666667</v>
+        <v>1024.923333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C11" t="n">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="D11" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E11" t="n">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>416.4609</v>
       </c>
       <c r="G11" t="n">
-        <v>1025.323333333333</v>
+        <v>1024.806666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>1034</v>
       </c>
       <c r="F12" t="n">
-        <v>37.149</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1026.05</v>
+        <v>1025.323333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="C13" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D13" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E13" t="n">
-        <v>1025</v>
+        <v>1034</v>
       </c>
       <c r="F13" t="n">
-        <v>769.4398</v>
+        <v>37.149</v>
       </c>
       <c r="G13" t="n">
-        <v>1026.016666666667</v>
+        <v>1026.05</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="C14" t="n">
         <v>1035</v>
@@ -862,13 +862,13 @@
         <v>1035</v>
       </c>
       <c r="E14" t="n">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>769.4398</v>
       </c>
       <c r="G14" t="n">
-        <v>1026.15</v>
+        <v>1026.016666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C15" t="n">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="D15" t="n">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="E15" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="F15" t="n">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="G15" t="n">
-        <v>1026.916666666667</v>
+        <v>1026.15</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>1040</v>
       </c>
       <c r="C16" t="n">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="D16" t="n">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="E16" t="n">
         <v>1040</v>
       </c>
       <c r="F16" t="n">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="G16" t="n">
-        <v>1027.583333333333</v>
+        <v>1026.916666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C17" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="D17" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="E17" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F17" t="n">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="G17" t="n">
-        <v>1028.316666666667</v>
+        <v>1027.583333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C18" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="D18" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E18" t="n">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="F18" t="n">
-        <v>596.5798</v>
+        <v>119</v>
       </c>
       <c r="G18" t="n">
-        <v>1029.033333333333</v>
+        <v>1028.316666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C19" t="n">
         <v>1047</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1050</v>
       </c>
       <c r="D19" t="n">
         <v>1050</v>
@@ -1040,10 +1040,10 @@
         <v>1047</v>
       </c>
       <c r="F19" t="n">
-        <v>1378.1269</v>
+        <v>596.5798</v>
       </c>
       <c r="G19" t="n">
-        <v>1029.5</v>
+        <v>1029.033333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C20" t="n">
         <v>1050</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1047</v>
       </c>
       <c r="D20" t="n">
         <v>1050</v>
@@ -1075,10 +1075,10 @@
         <v>1047</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>1378.1269</v>
       </c>
       <c r="G20" t="n">
-        <v>1029.916666666667</v>
+        <v>1029.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C21" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D21" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E21" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G21" t="n">
-        <v>1030.3</v>
+        <v>1029.916666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>1046</v>
       </c>
       <c r="C22" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D22" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E22" t="n">
         <v>1046</v>
       </c>
       <c r="F22" t="n">
-        <v>8.994199999999999</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>1030.733333333333</v>
+        <v>1030.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C23" t="n">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="D23" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E23" t="n">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="F23" t="n">
         <v>8.994199999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1030.983333333333</v>
+        <v>1030.733333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C24" t="n">
         <v>1038</v>
       </c>
-      <c r="C24" t="n">
-        <v>1050</v>
-      </c>
       <c r="D24" t="n">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E24" t="n">
         <v>1038</v>
       </c>
       <c r="F24" t="n">
-        <v>189.9085</v>
+        <v>8.994199999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>1031.4</v>
+        <v>1030.983333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C25" t="n">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="D25" t="n">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="E25" t="n">
         <v>1038</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8414</v>
+        <v>189.9085</v>
       </c>
       <c r="G25" t="n">
-        <v>1031.6</v>
+        <v>1031.4</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C26" t="n">
         <v>1038</v>
       </c>
-      <c r="C26" t="n">
-        <v>1036</v>
-      </c>
       <c r="D26" t="n">
+        <v>1041</v>
+      </c>
+      <c r="E26" t="n">
         <v>1038</v>
       </c>
-      <c r="E26" t="n">
-        <v>1036</v>
-      </c>
       <c r="F26" t="n">
-        <v>109.641</v>
+        <v>192.8414</v>
       </c>
       <c r="G26" t="n">
-        <v>1031.65</v>
+        <v>1031.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="C27" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D27" t="n">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E27" t="n">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="F27" t="n">
-        <v>465.5748</v>
+        <v>109.641</v>
       </c>
       <c r="G27" t="n">
         <v>1031.65</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="C28" t="n">
-        <v>1052</v>
+        <v>1030</v>
       </c>
       <c r="D28" t="n">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="E28" t="n">
-        <v>1052</v>
+        <v>1029</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>465.5748</v>
       </c>
       <c r="G28" t="n">
-        <v>1032.05</v>
+        <v>1031.65</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="C29" t="n">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="D29" t="n">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="E29" t="n">
-        <v>1043</v>
+        <v>1052</v>
       </c>
       <c r="F29" t="n">
-        <v>1221.8874</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1032.316666666667</v>
+        <v>1032.05</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C30" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D30" t="n">
         <v>1045</v>
       </c>
       <c r="E30" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1221.8874</v>
       </c>
       <c r="G30" t="n">
-        <v>1032.533333333333</v>
+        <v>1032.316666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>1045</v>
       </c>
       <c r="C31" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D31" t="n">
         <v>1045</v>
       </c>
       <c r="E31" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F31" t="n">
-        <v>1584.9021</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>1032.8</v>
+        <v>1032.533333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="C32" t="n">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="D32" t="n">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="E32" t="n">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5738</v>
+        <v>1584.9021</v>
       </c>
       <c r="G32" t="n">
-        <v>1033.116666666667</v>
+        <v>1032.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="C33" t="n">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="D33" t="n">
-        <v>1041</v>
+        <v>1052</v>
       </c>
       <c r="E33" t="n">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="F33" t="n">
-        <v>889.4398</v>
+        <v>0.5738</v>
       </c>
       <c r="G33" t="n">
-        <v>1033.266666666667</v>
+        <v>1033.116666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="C34" t="n">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="D34" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="E34" t="n">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="F34" t="n">
-        <v>18.3089</v>
+        <v>889.4398</v>
       </c>
       <c r="G34" t="n">
-        <v>1033.666666666667</v>
+        <v>1033.266666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="C35" t="n">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="D35" t="n">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="E35" t="n">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="F35" t="n">
-        <v>1491.1215</v>
+        <v>18.3089</v>
       </c>
       <c r="G35" t="n">
-        <v>1034.033333333333</v>
+        <v>1033.666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="C36" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D36" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E36" t="n">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F36" t="n">
-        <v>44.7942</v>
+        <v>1491.1215</v>
       </c>
       <c r="G36" t="n">
-        <v>1034.383333333333</v>
+        <v>1034.033333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="C37" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="D37" t="n">
-        <v>1028</v>
+        <v>1039</v>
       </c>
       <c r="E37" t="n">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="F37" t="n">
-        <v>20</v>
+        <v>44.7942</v>
       </c>
       <c r="G37" t="n">
-        <v>1034.433333333333</v>
+        <v>1034.383333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="C38" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D38" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="E38" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F38" t="n">
-        <v>415.8278</v>
+        <v>20</v>
       </c>
       <c r="G38" t="n">
-        <v>1034.483333333333</v>
+        <v>1034.433333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1044</v>
+        <v>1018</v>
       </c>
       <c r="C39" t="n">
-        <v>1044</v>
+        <v>1018</v>
       </c>
       <c r="D39" t="n">
-        <v>1044</v>
+        <v>1018</v>
       </c>
       <c r="E39" t="n">
-        <v>1044</v>
+        <v>1018</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>415.8278</v>
       </c>
       <c r="G39" t="n">
-        <v>1035.066666666667</v>
+        <v>1034.483333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>1044</v>
       </c>
       <c r="C40" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D40" t="n">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E40" t="n">
         <v>1044</v>
       </c>
       <c r="F40" t="n">
-        <v>2367.6962</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1035.533333333333</v>
+        <v>1035.066666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C41" t="n">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D41" t="n">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E41" t="n">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F41" t="n">
-        <v>3745.4818</v>
+        <v>2367.6962</v>
       </c>
       <c r="G41" t="n">
-        <v>1035.85</v>
+        <v>1035.533333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="C42" t="n">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D42" t="n">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="E42" t="n">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="F42" t="n">
-        <v>1302.3792</v>
+        <v>3745.4818</v>
       </c>
       <c r="G42" t="n">
-        <v>1036.233333333333</v>
+        <v>1035.85</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C43" t="n">
         <v>1040</v>
       </c>
       <c r="D43" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="E43" t="n">
         <v>1040</v>
       </c>
       <c r="F43" t="n">
-        <v>22.0121</v>
+        <v>1302.3792</v>
       </c>
       <c r="G43" t="n">
-        <v>1036.566666666667</v>
+        <v>1036.233333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C44" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="D44" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E44" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="F44" t="n">
-        <v>82.0103</v>
+        <v>22.0121</v>
       </c>
       <c r="G44" t="n">
-        <v>1036.983333333333</v>
+        <v>1036.566666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>1044</v>
       </c>
       <c r="F45" t="n">
-        <v>41.0051</v>
+        <v>82.0103</v>
       </c>
       <c r="G45" t="n">
-        <v>1037.433333333333</v>
+        <v>1036.983333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="C46" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="D46" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="E46" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="F46" t="n">
-        <v>2.3829</v>
+        <v>41.0051</v>
       </c>
       <c r="G46" t="n">
-        <v>1037.833333333333</v>
+        <v>1037.433333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="C47" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="D47" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="E47" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F47" t="n">
-        <v>20.483</v>
+        <v>2.3829</v>
       </c>
       <c r="G47" t="n">
-        <v>1038.3</v>
+        <v>1037.833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="C48" t="n">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="D48" t="n">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="E48" t="n">
-        <v>1033</v>
+        <v>1045</v>
       </c>
       <c r="F48" t="n">
-        <v>38.2628</v>
+        <v>20.483</v>
       </c>
       <c r="G48" t="n">
-        <v>1038.583333333333</v>
+        <v>1038.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="C49" t="n">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="D49" t="n">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="E49" t="n">
-        <v>1022</v>
+        <v>1033</v>
       </c>
       <c r="F49" t="n">
-        <v>46.2468</v>
+        <v>38.2628</v>
       </c>
       <c r="G49" t="n">
-        <v>1039.116666666667</v>
+        <v>1038.583333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C50" t="n">
         <v>1045</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1026</v>
       </c>
       <c r="D50" t="n">
         <v>1045</v>
       </c>
       <c r="E50" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F50" t="n">
-        <v>345.2907</v>
+        <v>46.2468</v>
       </c>
       <c r="G50" t="n">
-        <v>1039.1</v>
+        <v>1039.116666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="C51" t="n">
         <v>1026</v>
       </c>
       <c r="D51" t="n">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="E51" t="n">
         <v>1026</v>
       </c>
       <c r="F51" t="n">
-        <v>70.6343</v>
+        <v>345.2907</v>
       </c>
       <c r="G51" t="n">
-        <v>1038.966666666667</v>
+        <v>1039.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C52" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="D52" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="E52" t="n">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="F52" t="n">
-        <v>102.9304</v>
+        <v>70.6343</v>
       </c>
       <c r="G52" t="n">
-        <v>1038.85</v>
+        <v>1038.966666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,19 +2218,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C53" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D53" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E53" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F53" t="n">
-        <v>43.3996</v>
+        <v>102.9304</v>
       </c>
       <c r="G53" t="n">
         <v>1038.85</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="C54" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="D54" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="E54" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="F54" t="n">
-        <v>59.5309</v>
+        <v>43.3996</v>
       </c>
       <c r="G54" t="n">
-        <v>1038.616666666667</v>
+        <v>1038.85</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C55" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D55" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E55" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F55" t="n">
-        <v>95.87390000000001</v>
+        <v>59.5309</v>
       </c>
       <c r="G55" t="n">
-        <v>1038.433333333333</v>
+        <v>1038.616666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>1025</v>
       </c>
       <c r="F56" t="n">
-        <v>47.375</v>
+        <v>95.87390000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>1038.616666666667</v>
+        <v>1038.433333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>1025</v>
       </c>
       <c r="F57" t="n">
-        <v>97.8553</v>
+        <v>47.375</v>
       </c>
       <c r="G57" t="n">
-        <v>1038.466666666667</v>
+        <v>1038.616666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="C58" t="n">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="D58" t="n">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="E58" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="F58" t="n">
-        <v>1.9883</v>
+        <v>97.8553</v>
       </c>
       <c r="G58" t="n">
-        <v>1038.566666666667</v>
+        <v>1038.466666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="C59" t="n">
         <v>1039</v>
@@ -2437,13 +2437,13 @@
         <v>1039</v>
       </c>
       <c r="E59" t="n">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="F59" t="n">
-        <v>172.5767</v>
+        <v>1.9883</v>
       </c>
       <c r="G59" t="n">
-        <v>1038.75</v>
+        <v>1038.566666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C60" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D60" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E60" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>172.5767</v>
       </c>
       <c r="G60" t="n">
-        <v>1038.866666666667</v>
+        <v>1038.75</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="C61" t="n">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="D61" t="n">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="E61" t="n">
-        <v>1029</v>
+        <v>1040</v>
       </c>
       <c r="F61" t="n">
-        <v>1.9627</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>1038.833333333333</v>
+        <v>1038.866666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="C62" t="n">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="D62" t="n">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="E62" t="n">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="F62" t="n">
-        <v>266.2877</v>
+        <v>1.9627</v>
       </c>
       <c r="G62" t="n">
-        <v>1038.95</v>
+        <v>1038.833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C63" t="n">
         <v>1042</v>
@@ -2577,13 +2577,13 @@
         <v>1042</v>
       </c>
       <c r="E63" t="n">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F63" t="n">
-        <v>638.6468</v>
+        <v>266.2877</v>
       </c>
       <c r="G63" t="n">
-        <v>1038.866666666667</v>
+        <v>1038.95</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>1042</v>
       </c>
       <c r="F64" t="n">
-        <v>32.7813</v>
+        <v>638.6468</v>
       </c>
       <c r="G64" t="n">
-        <v>1038.716666666667</v>
+        <v>1038.866666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>1042</v>
       </c>
       <c r="F65" t="n">
-        <v>6.2532</v>
+        <v>32.7813</v>
       </c>
       <c r="G65" t="n">
-        <v>1038.583333333333</v>
+        <v>1038.716666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="C66" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D66" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E66" t="n">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="F66" t="n">
-        <v>252.89282296</v>
+        <v>6.2532</v>
       </c>
       <c r="G66" t="n">
-        <v>1038.533333333333</v>
+        <v>1038.583333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2711,19 @@
         <v>1045</v>
       </c>
       <c r="C67" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D67" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="E67" t="n">
         <v>1045</v>
       </c>
       <c r="F67" t="n">
-        <v>172.9036</v>
+        <v>252.89282296</v>
       </c>
       <c r="G67" t="n">
-        <v>1038.616666666667</v>
+        <v>1038.533333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2743,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C68" t="n">
         <v>1048</v>
@@ -2752,13 +2752,13 @@
         <v>1048</v>
       </c>
       <c r="E68" t="n">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="F68" t="n">
-        <v>32.6373</v>
+        <v>172.9036</v>
       </c>
       <c r="G68" t="n">
-        <v>1038.8</v>
+        <v>1038.616666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>1048</v>
       </c>
       <c r="F69" t="n">
-        <v>664.6088</v>
+        <v>32.6373</v>
       </c>
       <c r="G69" t="n">
-        <v>1038.916666666667</v>
+        <v>1038.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>1048</v>
       </c>
       <c r="F70" t="n">
-        <v>54.9032</v>
+        <v>664.6088</v>
       </c>
       <c r="G70" t="n">
-        <v>1039.5</v>
+        <v>1038.916666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>1048</v>
       </c>
       <c r="F71" t="n">
-        <v>124.4824</v>
+        <v>54.9032</v>
       </c>
       <c r="G71" t="n">
-        <v>1039.733333333333</v>
+        <v>1039.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="C72" t="n">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="D72" t="n">
-        <v>1036</v>
+        <v>1048</v>
       </c>
       <c r="E72" t="n">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="F72" t="n">
-        <v>252.8928</v>
+        <v>124.4824</v>
       </c>
       <c r="G72" t="n">
-        <v>1039.65</v>
+        <v>1039.733333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="C73" t="n">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="D73" t="n">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="E73" t="n">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5</v>
+        <v>252.8928</v>
       </c>
       <c r="G73" t="n">
-        <v>1039.8</v>
+        <v>1039.65</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="C74" t="n">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="D74" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="E74" t="n">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="F74" t="n">
-        <v>2032.2446</v>
+        <v>0.5</v>
       </c>
       <c r="G74" t="n">
-        <v>1039.666666666667</v>
+        <v>1039.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>1034</v>
       </c>
       <c r="C75" t="n">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D75" t="n">
         <v>1034</v>
       </c>
       <c r="E75" t="n">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="F75" t="n">
-        <v>35.0521</v>
+        <v>2032.2446</v>
       </c>
       <c r="G75" t="n">
-        <v>1039.433333333333</v>
+        <v>1039.666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="C76" t="n">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="D76" t="n">
-        <v>1023</v>
+        <v>1034</v>
       </c>
       <c r="E76" t="n">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="F76" t="n">
-        <v>5405.6472</v>
+        <v>35.0521</v>
       </c>
       <c r="G76" t="n">
-        <v>1038.983333333333</v>
+        <v>1039.433333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="C77" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D77" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="E77" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F77" t="n">
-        <v>447.9961</v>
+        <v>5405.6472</v>
       </c>
       <c r="G77" t="n">
-        <v>1038.416666666667</v>
+        <v>1038.983333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C78" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D78" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E78" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F78" t="n">
-        <v>243.2699</v>
+        <v>447.9961</v>
       </c>
       <c r="G78" t="n">
-        <v>1037.866666666667</v>
+        <v>1038.416666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>1014</v>
       </c>
       <c r="F79" t="n">
-        <v>235.8423</v>
+        <v>243.2699</v>
       </c>
       <c r="G79" t="n">
-        <v>1037.266666666667</v>
+        <v>1037.866666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C80" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D80" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="E80" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5</v>
+        <v>235.8423</v>
       </c>
       <c r="G80" t="n">
-        <v>1036.866666666667</v>
+        <v>1037.266666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="C81" t="n">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="D81" t="n">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E81" t="n">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G81" t="n">
-        <v>1036.35</v>
+        <v>1036.866666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="C82" t="n">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="D82" t="n">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="E82" t="n">
-        <v>1006</v>
+        <v>1017</v>
       </c>
       <c r="F82" t="n">
-        <v>48.3802</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>1035.683333333333</v>
+        <v>1036.35</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C83" t="n">
         <v>1006</v>
       </c>
       <c r="D83" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E83" t="n">
         <v>1006</v>
       </c>
       <c r="F83" t="n">
-        <v>2313.5448</v>
+        <v>48.3802</v>
       </c>
       <c r="G83" t="n">
-        <v>1035.15</v>
+        <v>1035.683333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C84" t="n">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="D84" t="n">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="E84" t="n">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5928</v>
+        <v>2313.5448</v>
       </c>
       <c r="G84" t="n">
-        <v>1034.6</v>
+        <v>1035.15</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="C85" t="n">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="D85" t="n">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="E85" t="n">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5887</v>
+        <v>0.5928</v>
       </c>
       <c r="G85" t="n">
-        <v>1034.433333333333</v>
+        <v>1034.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="C86" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="D86" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="E86" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="F86" t="n">
-        <v>2068.1354</v>
+        <v>0.5887</v>
       </c>
       <c r="G86" t="n">
-        <v>1034.133333333333</v>
+        <v>1034.433333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="C87" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="D87" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="E87" t="n">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="F87" t="n">
-        <v>235.958</v>
+        <v>2068.1354</v>
       </c>
       <c r="G87" t="n">
-        <v>1034.1</v>
+        <v>1034.133333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C88" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D88" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E88" t="n">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F88" t="n">
-        <v>199.0077</v>
+        <v>235.958</v>
       </c>
       <c r="G88" t="n">
-        <v>1033.716666666667</v>
+        <v>1034.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="C89" t="n">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D89" t="n">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="E89" t="n">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F89" t="n">
-        <v>9.6</v>
+        <v>199.0077</v>
       </c>
       <c r="G89" t="n">
-        <v>1033.583333333333</v>
+        <v>1033.716666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="C90" t="n">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D90" t="n">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="E90" t="n">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="F90" t="n">
-        <v>408.4621</v>
+        <v>9.6</v>
       </c>
       <c r="G90" t="n">
-        <v>1033.333333333333</v>
+        <v>1033.583333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="C91" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D91" t="n">
-        <v>1030</v>
+        <v>1046</v>
       </c>
       <c r="E91" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F91" t="n">
-        <v>345.4406</v>
+        <v>408.4621</v>
       </c>
       <c r="G91" t="n">
-        <v>1033.083333333333</v>
+        <v>1033.333333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="C92" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="D92" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="E92" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>345.4406</v>
       </c>
       <c r="G92" t="n">
-        <v>1032.983333333333</v>
+        <v>1033.083333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3621,19 +3621,19 @@
         <v>1046</v>
       </c>
       <c r="C93" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D93" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E93" t="n">
         <v>1046</v>
       </c>
       <c r="F93" t="n">
-        <v>1207.024</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>1033.1</v>
+        <v>1032.983333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C94" t="n">
         <v>1047</v>
@@ -3662,13 +3662,13 @@
         <v>1047</v>
       </c>
       <c r="E94" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F94" t="n">
-        <v>436.3373</v>
+        <v>1207.024</v>
       </c>
       <c r="G94" t="n">
-        <v>1033.066666666667</v>
+        <v>1033.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>1047</v>
       </c>
       <c r="F95" t="n">
-        <v>515.4811</v>
+        <v>436.3373</v>
       </c>
       <c r="G95" t="n">
-        <v>1033.183333333333</v>
+        <v>1033.066666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="C96" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D96" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E96" t="n">
-        <v>1035</v>
+        <v>1047</v>
       </c>
       <c r="F96" t="n">
-        <v>443.5827</v>
+        <v>515.4811</v>
       </c>
       <c r="G96" t="n">
-        <v>1033.3</v>
+        <v>1033.183333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>1035</v>
       </c>
       <c r="C97" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="D97" t="n">
+        <v>1046</v>
+      </c>
+      <c r="E97" t="n">
         <v>1035</v>
       </c>
-      <c r="E97" t="n">
-        <v>1034</v>
-      </c>
       <c r="F97" t="n">
-        <v>487.1773</v>
+        <v>443.5827</v>
       </c>
       <c r="G97" t="n">
-        <v>1033.55</v>
+        <v>1033.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="C98" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D98" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="E98" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="F98" t="n">
-        <v>168.618</v>
+        <v>487.1773</v>
       </c>
       <c r="G98" t="n">
-        <v>1033.75</v>
+        <v>1033.55</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="C99" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="D99" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="E99" t="n">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5</v>
+        <v>168.618</v>
       </c>
       <c r="G99" t="n">
-        <v>1033.783333333333</v>
+        <v>1033.75</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="C100" t="n">
-        <v>1021</v>
+        <v>1046</v>
       </c>
       <c r="D100" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="E100" t="n">
-        <v>1021</v>
+        <v>1046</v>
       </c>
       <c r="F100" t="n">
-        <v>2155.9467</v>
+        <v>0.5</v>
       </c>
       <c r="G100" t="n">
-        <v>1033.383333333333</v>
+        <v>1033.783333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="C101" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D101" t="n">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="E101" t="n">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F101" t="n">
-        <v>256.4787</v>
+        <v>2155.9467</v>
       </c>
       <c r="G101" t="n">
-        <v>1033</v>
+        <v>1033.383333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="C102" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="D102" t="n">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="E102" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="F102" t="n">
-        <v>56.5268</v>
+        <v>256.4787</v>
       </c>
       <c r="G102" t="n">
-        <v>1032.566666666667</v>
+        <v>1033</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C103" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D103" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E103" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F103" t="n">
-        <v>2365.9957</v>
+        <v>56.5268</v>
       </c>
       <c r="G103" t="n">
-        <v>1032.15</v>
+        <v>1032.566666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C104" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D104" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E104" t="n">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F104" t="n">
-        <v>8241.786899999999</v>
+        <v>2365.9957</v>
       </c>
       <c r="G104" t="n">
-        <v>1031.683333333333</v>
+        <v>1032.15</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="C105" t="n">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="D105" t="n">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="E105" t="n">
-        <v>1032</v>
+        <v>1016</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5</v>
+        <v>8241.786899999999</v>
       </c>
       <c r="G105" t="n">
-        <v>1031.483333333333</v>
+        <v>1031.683333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C106" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D106" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="E106" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F106" t="n">
-        <v>286.06921587</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="n">
-        <v>1031.5</v>
+        <v>1031.483333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C107" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D107" t="n">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E107" t="n">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5</v>
+        <v>286.06921587</v>
       </c>
       <c r="G107" t="n">
-        <v>1031.35</v>
+        <v>1031.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="C108" t="n">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="D108" t="n">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="E108" t="n">
-        <v>1024</v>
+        <v>1036</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G108" t="n">
-        <v>1031.2</v>
+        <v>1031.35</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>1024</v>
       </c>
       <c r="C109" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D109" t="n">
         <v>1024</v>
       </c>
       <c r="E109" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F109" t="n">
-        <v>2753.0975</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>1030.833333333333</v>
+        <v>1031.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="C110" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D110" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E110" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F110" t="n">
-        <v>1119.6709</v>
+        <v>2753.0975</v>
       </c>
       <c r="G110" t="n">
-        <v>1030.766666666667</v>
+        <v>1030.833333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C111" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D111" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E111" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>1119.6709</v>
       </c>
       <c r="G111" t="n">
-        <v>1030.716666666667</v>
+        <v>1030.766666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C112" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D112" t="n">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E112" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F112" t="n">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>1030.566666666667</v>
+        <v>1030.716666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,16 +4321,16 @@
         <v>1024</v>
       </c>
       <c r="C113" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D113" t="n">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="E113" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F113" t="n">
-        <v>270.3503</v>
+        <v>2000</v>
       </c>
       <c r="G113" t="n">
         <v>1030.566666666667</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="C114" t="n">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D114" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E114" t="n">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5</v>
+        <v>270.3503</v>
       </c>
       <c r="G114" t="n">
-        <v>1030.75</v>
+        <v>1030.566666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C115" t="n">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D115" t="n">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E115" t="n">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="F115" t="n">
-        <v>311.92960271</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="n">
-        <v>1030.85</v>
+        <v>1030.75</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="C116" t="n">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D116" t="n">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E116" t="n">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5</v>
+        <v>311.92960271</v>
       </c>
       <c r="G116" t="n">
-        <v>1031.05</v>
+        <v>1030.85</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,19 +4458,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="C117" t="n">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="D117" t="n">
-        <v>1026</v>
+        <v>1037</v>
       </c>
       <c r="E117" t="n">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="F117" t="n">
-        <v>77.67100000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="n">
         <v>1031.05</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="C118" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D118" t="n">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="E118" t="n">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F118" t="n">
-        <v>312.4346</v>
+        <v>77.67100000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>1030.783333333333</v>
+        <v>1031.05</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="C119" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D119" t="n">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="E119" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>312.4346</v>
       </c>
       <c r="G119" t="n">
-        <v>1030.55</v>
+        <v>1030.783333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C120" t="n">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D120" t="n">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="E120" t="n">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9883</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>1030.416666666667</v>
+        <v>1030.55</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="C121" t="n">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="D121" t="n">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="E121" t="n">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="F121" t="n">
-        <v>285.5693</v>
+        <v>0.9883</v>
       </c>
       <c r="G121" t="n">
-        <v>1030.333333333333</v>
+        <v>1030.416666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C122" t="n">
         <v>1024</v>
       </c>
-      <c r="C122" t="n">
-        <v>1023</v>
-      </c>
       <c r="D122" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E122" t="n">
         <v>1024</v>
       </c>
-      <c r="E122" t="n">
-        <v>1023</v>
-      </c>
       <c r="F122" t="n">
-        <v>1258.3804</v>
+        <v>285.5693</v>
       </c>
       <c r="G122" t="n">
-        <v>1030.016666666667</v>
+        <v>1030.333333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C123" t="n">
         <v>1023</v>
       </c>
-      <c r="C123" t="n">
-        <v>1022</v>
-      </c>
       <c r="D123" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E123" t="n">
         <v>1023</v>
       </c>
-      <c r="E123" t="n">
-        <v>1022</v>
-      </c>
       <c r="F123" t="n">
-        <v>2400.4187</v>
+        <v>1258.3804</v>
       </c>
       <c r="G123" t="n">
-        <v>1029.683333333333</v>
+        <v>1030.016666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C124" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D124" t="n">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="E124" t="n">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5082</v>
+        <v>2400.4187</v>
       </c>
       <c r="G124" t="n">
-        <v>1029.483333333333</v>
+        <v>1029.683333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C125" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="D125" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="E125" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="F125" t="n">
-        <v>2593.446</v>
+        <v>0.5082</v>
       </c>
       <c r="G125" t="n">
-        <v>1029.216666666667</v>
+        <v>1029.483333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4776,19 @@
         <v>1026</v>
       </c>
       <c r="C126" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="D126" t="n">
         <v>1026</v>
       </c>
       <c r="E126" t="n">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="F126" t="n">
-        <v>18.8607</v>
+        <v>2593.446</v>
       </c>
       <c r="G126" t="n">
-        <v>1028.816666666667</v>
+        <v>1029.216666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C127" t="n">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="D127" t="n">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="E127" t="n">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9718172899999999</v>
+        <v>18.8607</v>
       </c>
       <c r="G127" t="n">
-        <v>1028.5</v>
+        <v>1028.816666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="C128" t="n">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="D128" t="n">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="E128" t="n">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="F128" t="n">
-        <v>2223.5475</v>
+        <v>0.9718172899999999</v>
       </c>
       <c r="G128" t="n">
-        <v>1028.05</v>
+        <v>1028.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C129" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="D129" t="n">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E129" t="n">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="F129" t="n">
-        <v>252.0328</v>
+        <v>2223.5475</v>
       </c>
       <c r="G129" t="n">
-        <v>1027.55</v>
+        <v>1028.05</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="C130" t="n">
         <v>1018</v>
       </c>
       <c r="D130" t="n">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E130" t="n">
         <v>1018</v>
       </c>
       <c r="F130" t="n">
-        <v>256.108</v>
+        <v>252.0328</v>
       </c>
       <c r="G130" t="n">
-        <v>1027.05</v>
+        <v>1027.55</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4951,19 @@
         <v>1018</v>
       </c>
       <c r="C131" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="D131" t="n">
         <v>1018</v>
       </c>
       <c r="E131" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="F131" t="n">
-        <v>6571.5936</v>
+        <v>256.108</v>
       </c>
       <c r="G131" t="n">
-        <v>1026.483333333333</v>
+        <v>1027.05</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C132" t="n">
         <v>1014</v>
       </c>
       <c r="D132" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E132" t="n">
         <v>1014</v>
       </c>
       <c r="F132" t="n">
-        <v>3021.8665</v>
+        <v>6571.5936</v>
       </c>
       <c r="G132" t="n">
-        <v>1026.233333333333</v>
+        <v>1026.483333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5024,16 +5024,16 @@
         <v>1014</v>
       </c>
       <c r="D133" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E133" t="n">
         <v>1014</v>
       </c>
       <c r="F133" t="n">
-        <v>104.1502</v>
+        <v>3021.8665</v>
       </c>
       <c r="G133" t="n">
-        <v>1025.733333333333</v>
+        <v>1026.233333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5065,10 @@
         <v>1014</v>
       </c>
       <c r="F134" t="n">
-        <v>1018</v>
+        <v>104.1502</v>
       </c>
       <c r="G134" t="n">
-        <v>1025.516666666667</v>
+        <v>1025.733333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5100,10 @@
         <v>1014</v>
       </c>
       <c r="F135" t="n">
-        <v>44.1983</v>
+        <v>1018</v>
       </c>
       <c r="G135" t="n">
-        <v>1025.183333333333</v>
+        <v>1025.516666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>1014</v>
       </c>
       <c r="F136" t="n">
-        <v>60.8017</v>
+        <v>44.1983</v>
       </c>
       <c r="G136" t="n">
         <v>1025.183333333333</v>
@@ -5170,10 +5170,10 @@
         <v>1014</v>
       </c>
       <c r="F137" t="n">
-        <v>89.1983</v>
+        <v>60.8017</v>
       </c>
       <c r="G137" t="n">
-        <v>1025.166666666667</v>
+        <v>1025.183333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C138" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D138" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="E138" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>89.1983</v>
       </c>
       <c r="G138" t="n">
-        <v>1025.316666666667</v>
+        <v>1025.166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="C139" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="D139" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="E139" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="F139" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>1025.333333333333</v>
+        <v>1025.316666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,19 +5263,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C140" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="D140" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="E140" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5</v>
+        <v>51</v>
       </c>
       <c r="G140" t="n">
         <v>1025.333333333333</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="C141" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="D141" t="n">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="E141" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="F141" t="n">
-        <v>1645.3346</v>
+        <v>0.5</v>
       </c>
       <c r="G141" t="n">
-        <v>1025.283333333333</v>
+        <v>1025.333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C142" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="D142" t="n">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="E142" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="F142" t="n">
-        <v>2.2621</v>
+        <v>1645.3346</v>
       </c>
       <c r="G142" t="n">
-        <v>1025.566666666667</v>
+        <v>1025.283333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="C143" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="D143" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="E143" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="F143" t="n">
-        <v>797.076</v>
+        <v>2.2621</v>
       </c>
       <c r="G143" t="n">
-        <v>1025.7</v>
+        <v>1025.566666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C144" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D144" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E144" t="n">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="F144" t="n">
-        <v>3183.0812</v>
+        <v>797.076</v>
       </c>
       <c r="G144" t="n">
-        <v>1025.666666666667</v>
+        <v>1025.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,7 +5438,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C145" t="n">
         <v>1015</v>
@@ -5447,13 +5447,13 @@
         <v>1015</v>
       </c>
       <c r="E145" t="n">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>3183.0812</v>
       </c>
       <c r="G145" t="n">
-        <v>1025.45</v>
+        <v>1025.666666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C146" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D146" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E146" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>1025.383333333333</v>
+        <v>1025.45</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C147" t="n">
-        <v>995.5</v>
+        <v>1014</v>
       </c>
       <c r="D147" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E147" t="n">
-        <v>995.5</v>
+        <v>1014</v>
       </c>
       <c r="F147" t="n">
-        <v>2659.6885</v>
+        <v>1</v>
       </c>
       <c r="G147" t="n">
-        <v>1024.841666666667</v>
+        <v>1025.383333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5546,19 +5546,19 @@
         <v>1013</v>
       </c>
       <c r="C148" t="n">
-        <v>1013</v>
+        <v>995.5</v>
       </c>
       <c r="D148" t="n">
         <v>1013</v>
       </c>
       <c r="E148" t="n">
-        <v>1013</v>
+        <v>995.5</v>
       </c>
       <c r="F148" t="n">
-        <v>8.304600000000001</v>
+        <v>2659.6885</v>
       </c>
       <c r="G148" t="n">
-        <v>1024.575</v>
+        <v>1024.841666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5581,19 +5581,19 @@
         <v>1013</v>
       </c>
       <c r="C149" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D149" t="n">
         <v>1013</v>
       </c>
       <c r="E149" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F149" t="n">
-        <v>454.5277</v>
+        <v>8.304600000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>1024.191666666667</v>
+        <v>1024.575</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C150" t="n">
         <v>1012</v>
       </c>
-      <c r="C150" t="n">
-        <v>1011</v>
-      </c>
       <c r="D150" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E150" t="n">
         <v>1012</v>
       </c>
-      <c r="E150" t="n">
-        <v>1011</v>
-      </c>
       <c r="F150" t="n">
-        <v>532.6391</v>
+        <v>454.5277</v>
       </c>
       <c r="G150" t="n">
-        <v>1023.891666666667</v>
+        <v>1024.191666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="C151" t="n">
-        <v>995.5</v>
+        <v>1011</v>
       </c>
       <c r="D151" t="n">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="E151" t="n">
-        <v>995.5</v>
+        <v>1011</v>
       </c>
       <c r="F151" t="n">
-        <v>1754.8041</v>
+        <v>532.6391</v>
       </c>
       <c r="G151" t="n">
-        <v>1023.316666666667</v>
+        <v>1023.891666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>995.7</v>
+        <v>1003</v>
       </c>
       <c r="C152" t="n">
         <v>995.5</v>
       </c>
       <c r="D152" t="n">
-        <v>995.7</v>
+        <v>1003</v>
       </c>
       <c r="E152" t="n">
         <v>995.5</v>
       </c>
       <c r="F152" t="n">
-        <v>1474.3735</v>
+        <v>1754.8041</v>
       </c>
       <c r="G152" t="n">
-        <v>1022.475</v>
+        <v>1023.316666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>995.5</v>
+        <v>995.7</v>
       </c>
       <c r="C153" t="n">
         <v>995.5</v>
       </c>
       <c r="D153" t="n">
-        <v>995.5</v>
+        <v>995.7</v>
       </c>
       <c r="E153" t="n">
         <v>995.5</v>
       </c>
       <c r="F153" t="n">
-        <v>2956.9525</v>
+        <v>1474.3735</v>
       </c>
       <c r="G153" t="n">
-        <v>1021.616666666667</v>
+        <v>1022.475</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>997.1</v>
+        <v>995.5</v>
       </c>
       <c r="C154" t="n">
         <v>995.5</v>
       </c>
       <c r="D154" t="n">
-        <v>997.1</v>
+        <v>995.5</v>
       </c>
       <c r="E154" t="n">
         <v>995.5</v>
       </c>
       <c r="F154" t="n">
-        <v>2225.2596</v>
+        <v>2956.9525</v>
       </c>
       <c r="G154" t="n">
-        <v>1020.758333333333</v>
+        <v>1021.616666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1010</v>
+        <v>997.1</v>
       </c>
       <c r="C155" t="n">
-        <v>1010</v>
+        <v>995.5</v>
       </c>
       <c r="D155" t="n">
-        <v>1010</v>
+        <v>997.1</v>
       </c>
       <c r="E155" t="n">
-        <v>1010</v>
+        <v>995.5</v>
       </c>
       <c r="F155" t="n">
-        <v>261.36</v>
+        <v>2225.2596</v>
       </c>
       <c r="G155" t="n">
-        <v>1020.141666666667</v>
+        <v>1020.758333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="C156" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="D156" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="E156" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="F156" t="n">
-        <v>1</v>
+        <v>261.36</v>
       </c>
       <c r="G156" t="n">
-        <v>1019.308333333333</v>
+        <v>1020.141666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C157" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D157" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E157" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F157" t="n">
-        <v>248.219</v>
+        <v>1</v>
       </c>
       <c r="G157" t="n">
-        <v>1018.691666666667</v>
+        <v>1019.308333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5905,10 +5905,10 @@
         <v>997</v>
       </c>
       <c r="F158" t="n">
-        <v>13</v>
+        <v>248.219</v>
       </c>
       <c r="G158" t="n">
-        <v>1018.141666666667</v>
+        <v>1018.691666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>997</v>
       </c>
       <c r="F159" t="n">
-        <v>0.141</v>
+        <v>13</v>
       </c>
       <c r="G159" t="n">
-        <v>1017.325</v>
+        <v>1018.141666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="C160" t="n">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="D160" t="n">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="E160" t="n">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="F160" t="n">
-        <v>7.7794</v>
+        <v>0.141</v>
       </c>
       <c r="G160" t="n">
-        <v>1017.108333333333</v>
+        <v>1017.325</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,35 +5998,31 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C161" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D161" t="n">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="E161" t="n">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="F161" t="n">
-        <v>2</v>
+        <v>7.7794</v>
       </c>
       <c r="G161" t="n">
-        <v>1016.941666666667</v>
+        <v>1017.108333333333</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K161" t="n">
-        <v>1008</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
@@ -6037,40 +6033,32 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="C162" t="n">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="D162" t="n">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="E162" t="n">
-        <v>997</v>
+        <v>1013</v>
       </c>
       <c r="F162" t="n">
-        <v>61.1942</v>
+        <v>2</v>
       </c>
       <c r="G162" t="n">
-        <v>1016.658333333333</v>
+        <v>1016.941666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>1013</v>
-      </c>
-      <c r="K162" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6080,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>995.9</v>
+        <v>997</v>
       </c>
       <c r="C163" t="n">
-        <v>995.5</v>
+        <v>997</v>
       </c>
       <c r="D163" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="E163" t="n">
-        <v>995.5</v>
+        <v>997</v>
       </c>
       <c r="F163" t="n">
-        <v>1944.0189</v>
+        <v>61.1942</v>
       </c>
       <c r="G163" t="n">
-        <v>1016.333333333333</v>
+        <v>1016.658333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6104,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6121,40 +6103,32 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>997</v>
+        <v>995.9</v>
       </c>
       <c r="C164" t="n">
         <v>995.5</v>
       </c>
       <c r="D164" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E164" t="n">
         <v>995.5</v>
       </c>
       <c r="F164" t="n">
-        <v>851.8429</v>
+        <v>1944.0189</v>
       </c>
       <c r="G164" t="n">
-        <v>1015.991666666667</v>
+        <v>1016.333333333333</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>995.5</v>
-      </c>
-      <c r="K164" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6164,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>995.5</v>
+        <v>997</v>
       </c>
       <c r="C165" t="n">
         <v>995.5</v>
       </c>
       <c r="D165" t="n">
-        <v>995.5</v>
+        <v>997</v>
       </c>
       <c r="E165" t="n">
         <v>995.5</v>
       </c>
       <c r="F165" t="n">
-        <v>550.7068</v>
+        <v>851.8429</v>
       </c>
       <c r="G165" t="n">
-        <v>1015.383333333333</v>
+        <v>1015.991666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6188,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6205,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>995</v>
+        <v>995.5</v>
       </c>
       <c r="C166" t="n">
-        <v>995</v>
+        <v>995.5</v>
       </c>
       <c r="D166" t="n">
-        <v>995</v>
+        <v>995.5</v>
       </c>
       <c r="E166" t="n">
-        <v>995</v>
+        <v>995.5</v>
       </c>
       <c r="F166" t="n">
-        <v>177.3936</v>
+        <v>550.7068</v>
       </c>
       <c r="G166" t="n">
-        <v>1014.716666666667</v>
+        <v>1015.383333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6229,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>992.5</v>
+        <v>995</v>
       </c>
       <c r="C167" t="n">
-        <v>992.5</v>
+        <v>995</v>
       </c>
       <c r="D167" t="n">
-        <v>992.5</v>
+        <v>995</v>
       </c>
       <c r="E167" t="n">
-        <v>992.5</v>
+        <v>995</v>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>177.3936</v>
       </c>
       <c r="G167" t="n">
-        <v>1013.991666666667</v>
+        <v>1014.716666666667</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6270,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6287,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>994</v>
+        <v>992.5</v>
       </c>
       <c r="C168" t="n">
-        <v>994</v>
+        <v>992.5</v>
       </c>
       <c r="D168" t="n">
-        <v>994</v>
+        <v>992.5</v>
       </c>
       <c r="E168" t="n">
-        <v>994</v>
+        <v>992.5</v>
       </c>
       <c r="F168" t="n">
-        <v>15.1</v>
+        <v>10</v>
       </c>
       <c r="G168" t="n">
-        <v>1013.491666666667</v>
+        <v>1013.991666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6311,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6328,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>992.6</v>
+        <v>994</v>
       </c>
       <c r="C169" t="n">
-        <v>992.6</v>
+        <v>994</v>
       </c>
       <c r="D169" t="n">
-        <v>992.6</v>
+        <v>994</v>
       </c>
       <c r="E169" t="n">
-        <v>992.6</v>
+        <v>994</v>
       </c>
       <c r="F169" t="n">
-        <v>147.4767</v>
+        <v>15.1</v>
       </c>
       <c r="G169" t="n">
-        <v>1012.985</v>
+        <v>1013.491666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6352,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6369,40 +6313,32 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1010</v>
+        <v>992.6</v>
       </c>
       <c r="C170" t="n">
-        <v>1010</v>
+        <v>992.6</v>
       </c>
       <c r="D170" t="n">
-        <v>1010</v>
+        <v>992.6</v>
       </c>
       <c r="E170" t="n">
-        <v>1010</v>
+        <v>992.6</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5</v>
+        <v>147.4767</v>
       </c>
       <c r="G170" t="n">
-        <v>1012.785</v>
+        <v>1012.985</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>992.6</v>
-      </c>
-      <c r="K170" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6412,40 +6348,32 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>992.9</v>
+        <v>1010</v>
       </c>
       <c r="C171" t="n">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="D171" t="n">
-        <v>992.9</v>
+        <v>1010</v>
       </c>
       <c r="E171" t="n">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="F171" t="n">
-        <v>11571.7799</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="n">
-        <v>1012.268333333333</v>
+        <v>1012.785</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>1010</v>
-      </c>
-      <c r="K171" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6455,40 +6383,32 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>992</v>
+        <v>992.9</v>
       </c>
       <c r="C172" t="n">
         <v>992</v>
       </c>
       <c r="D172" t="n">
-        <v>992</v>
+        <v>992.9</v>
       </c>
       <c r="E172" t="n">
         <v>992</v>
       </c>
       <c r="F172" t="n">
-        <v>1733.8439</v>
+        <v>11571.7799</v>
       </c>
       <c r="G172" t="n">
-        <v>1011.768333333333</v>
+        <v>1012.268333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>992</v>
-      </c>
-      <c r="K172" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6498,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>991.5</v>
+        <v>992</v>
       </c>
       <c r="C173" t="n">
-        <v>991.5</v>
+        <v>992</v>
       </c>
       <c r="D173" t="n">
-        <v>991.5</v>
+        <v>992</v>
       </c>
       <c r="E173" t="n">
-        <v>991.5</v>
+        <v>992</v>
       </c>
       <c r="F173" t="n">
-        <v>20</v>
+        <v>1733.8439</v>
       </c>
       <c r="G173" t="n">
-        <v>1011.126666666667</v>
+        <v>1011.768333333333</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6522,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6539,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>991.4</v>
+        <v>991.5</v>
       </c>
       <c r="C174" t="n">
-        <v>1008</v>
+        <v>991.5</v>
       </c>
       <c r="D174" t="n">
-        <v>1008</v>
+        <v>991.5</v>
       </c>
       <c r="E174" t="n">
-        <v>991.4</v>
+        <v>991.5</v>
       </c>
       <c r="F174" t="n">
-        <v>2441.1974</v>
+        <v>20</v>
       </c>
       <c r="G174" t="n">
-        <v>1010.693333333333</v>
+        <v>1011.126666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6563,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6580,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1005</v>
+        <v>991.4</v>
       </c>
       <c r="C175" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="D175" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E175" t="n">
-        <v>1002</v>
+        <v>991.4</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>2441.1974</v>
       </c>
       <c r="G175" t="n">
-        <v>1010.21</v>
+        <v>1010.693333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6604,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6621,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C176" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="D176" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E176" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F176" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G176" t="n">
-        <v>1009.726666666667</v>
+        <v>1010.21</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6645,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6662,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C177" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="D177" t="n">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E177" t="n">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="F177" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="n">
-        <v>1009.41</v>
+        <v>1009.726666666667</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6686,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6703,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C178" t="n">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D178" t="n">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E178" t="n">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="F178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G178" t="n">
-        <v>1009.16</v>
+        <v>1009.41</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6727,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6744,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="C179" t="n">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="D179" t="n">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="E179" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F179" t="n">
-        <v>2449.6974</v>
+        <v>5</v>
       </c>
       <c r="G179" t="n">
-        <v>1008.576666666667</v>
+        <v>1009.16</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6768,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6785,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>990.1</v>
+        <v>992</v>
       </c>
       <c r="C180" t="n">
         <v>990</v>
       </c>
       <c r="D180" t="n">
-        <v>990.1</v>
+        <v>992</v>
       </c>
       <c r="E180" t="n">
         <v>990</v>
       </c>
       <c r="F180" t="n">
-        <v>2971.5121</v>
+        <v>2449.6974</v>
       </c>
       <c r="G180" t="n">
-        <v>1007.876666666667</v>
+        <v>1008.576666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6809,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6826,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1000</v>
+        <v>990.1</v>
       </c>
       <c r="C181" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D181" t="n">
-        <v>1000</v>
+        <v>990.1</v>
       </c>
       <c r="E181" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="F181" t="n">
-        <v>0.5</v>
+        <v>2971.5121</v>
       </c>
       <c r="G181" t="n">
-        <v>1007.476666666667</v>
+        <v>1007.876666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6850,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6867,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C182" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D182" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E182" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="F182" t="n">
-        <v>7.84</v>
+        <v>0.5</v>
       </c>
       <c r="G182" t="n">
-        <v>1007.043333333333</v>
+        <v>1007.476666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6891,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6908,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C183" t="n">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="D183" t="n">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="E183" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="F183" t="n">
-        <v>3164.7844</v>
+        <v>7.84</v>
       </c>
       <c r="G183" t="n">
-        <v>1006.81</v>
+        <v>1007.043333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6932,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6949,7 +6803,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C184" t="n">
         <v>1008</v>
@@ -6958,13 +6812,13 @@
         <v>1008</v>
       </c>
       <c r="E184" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F184" t="n">
-        <v>434.8389</v>
+        <v>3164.7844</v>
       </c>
       <c r="G184" t="n">
-        <v>1006.443333333333</v>
+        <v>1006.81</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6973,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6990,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C185" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D185" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E185" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>434.8389</v>
       </c>
       <c r="G185" t="n">
-        <v>1006.093333333333</v>
+        <v>1006.443333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7014,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7043,10 +6885,10 @@
         <v>1005</v>
       </c>
       <c r="F186" t="n">
-        <v>490</v>
+        <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>1005.826666666667</v>
+        <v>1006.093333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7055,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7072,22 +6908,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C187" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D187" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E187" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="F187" t="n">
-        <v>3840.5908</v>
+        <v>490</v>
       </c>
       <c r="G187" t="n">
-        <v>1005.476666666667</v>
+        <v>1005.826666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7096,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7113,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>997.6</v>
+        <v>1008</v>
       </c>
       <c r="C188" t="n">
-        <v>997.6</v>
+        <v>1008</v>
       </c>
       <c r="D188" t="n">
-        <v>997.6</v>
+        <v>1008</v>
       </c>
       <c r="E188" t="n">
-        <v>997.6</v>
+        <v>1008</v>
       </c>
       <c r="F188" t="n">
-        <v>122.4821</v>
+        <v>3840.5908</v>
       </c>
       <c r="G188" t="n">
-        <v>1005.086666666667</v>
+        <v>1005.476666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7137,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7154,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>995</v>
+        <v>997.6</v>
       </c>
       <c r="C189" t="n">
-        <v>994</v>
+        <v>997.6</v>
       </c>
       <c r="D189" t="n">
-        <v>995</v>
+        <v>997.6</v>
       </c>
       <c r="E189" t="n">
-        <v>994</v>
+        <v>997.6</v>
       </c>
       <c r="F189" t="n">
-        <v>420.7385</v>
+        <v>122.4821</v>
       </c>
       <c r="G189" t="n">
-        <v>1004.686666666667</v>
+        <v>1005.086666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7178,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7195,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C190" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="D190" t="n">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="E190" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5</v>
+        <v>420.7385</v>
       </c>
       <c r="G190" t="n">
-        <v>1004.47</v>
+        <v>1004.686666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7219,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7236,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="C191" t="n">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="D191" t="n">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="E191" t="n">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="F191" t="n">
-        <v>992.1919</v>
+        <v>0.5</v>
       </c>
       <c r="G191" t="n">
-        <v>1004.086666666667</v>
+        <v>1004.47</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7260,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7277,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>992</v>
+      </c>
+      <c r="C192" t="n">
         <v>991</v>
       </c>
-      <c r="C192" t="n">
-        <v>990</v>
-      </c>
       <c r="D192" t="n">
+        <v>992</v>
+      </c>
+      <c r="E192" t="n">
         <v>991</v>
       </c>
-      <c r="E192" t="n">
-        <v>990</v>
-      </c>
       <c r="F192" t="n">
-        <v>5581.0795</v>
+        <v>992.1919</v>
       </c>
       <c r="G192" t="n">
-        <v>1003.686666666667</v>
+        <v>1004.086666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7301,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7318,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>991</v>
+      </c>
+      <c r="C193" t="n">
         <v>990</v>
       </c>
-      <c r="C193" t="n">
-        <v>988.5</v>
-      </c>
       <c r="D193" t="n">
+        <v>991</v>
+      </c>
+      <c r="E193" t="n">
         <v>990</v>
       </c>
-      <c r="E193" t="n">
-        <v>988.5</v>
-      </c>
       <c r="F193" t="n">
-        <v>1949.0831</v>
+        <v>5581.0795</v>
       </c>
       <c r="G193" t="n">
-        <v>1003.261666666667</v>
+        <v>1003.686666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7342,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7359,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>990</v>
+      </c>
+      <c r="C194" t="n">
         <v>988.5</v>
       </c>
-      <c r="C194" t="n">
-        <v>987.5</v>
-      </c>
       <c r="D194" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E194" t="n">
-        <v>987.5</v>
+        <v>988.5</v>
       </c>
       <c r="F194" t="n">
-        <v>2302.8262</v>
+        <v>1949.0831</v>
       </c>
       <c r="G194" t="n">
-        <v>1002.82</v>
+        <v>1003.261666666667</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7383,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7400,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>988.5</v>
+      </c>
+      <c r="C195" t="n">
         <v>987.5</v>
       </c>
-      <c r="C195" t="n">
-        <v>985</v>
-      </c>
       <c r="D195" t="n">
+        <v>989</v>
+      </c>
+      <c r="E195" t="n">
         <v>987.5</v>
       </c>
-      <c r="E195" t="n">
-        <v>985</v>
-      </c>
       <c r="F195" t="n">
-        <v>3609.012</v>
+        <v>2302.8262</v>
       </c>
       <c r="G195" t="n">
-        <v>1002.336666666667</v>
+        <v>1002.82</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7424,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7441,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>985</v>
+        <v>987.5</v>
       </c>
       <c r="C196" t="n">
         <v>985</v>
       </c>
       <c r="D196" t="n">
-        <v>985</v>
+        <v>987.5</v>
       </c>
       <c r="E196" t="n">
         <v>985</v>
       </c>
       <c r="F196" t="n">
-        <v>378.4078</v>
+        <v>3609.012</v>
       </c>
       <c r="G196" t="n">
-        <v>1001.853333333333</v>
+        <v>1002.336666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7465,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7482,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>990.2</v>
+        <v>985</v>
       </c>
       <c r="C197" t="n">
-        <v>981.1</v>
+        <v>985</v>
       </c>
       <c r="D197" t="n">
-        <v>990.2</v>
+        <v>985</v>
       </c>
       <c r="E197" t="n">
-        <v>981.1</v>
+        <v>985</v>
       </c>
       <c r="F197" t="n">
-        <v>708.4263999999999</v>
+        <v>378.4078</v>
       </c>
       <c r="G197" t="n">
-        <v>1001.305</v>
+        <v>1001.853333333333</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7506,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7523,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>982.3</v>
+        <v>990.2</v>
       </c>
       <c r="C198" t="n">
-        <v>989.9</v>
+        <v>981.1</v>
       </c>
       <c r="D198" t="n">
-        <v>989.9</v>
+        <v>990.2</v>
       </c>
       <c r="E198" t="n">
-        <v>982.3</v>
+        <v>981.1</v>
       </c>
       <c r="F198" t="n">
-        <v>711.0326</v>
+        <v>708.4263999999999</v>
       </c>
       <c r="G198" t="n">
-        <v>1000.753333333333</v>
+        <v>1001.305</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7547,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7564,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>996</v>
+        <v>982.3</v>
       </c>
       <c r="C199" t="n">
-        <v>996</v>
+        <v>989.9</v>
       </c>
       <c r="D199" t="n">
-        <v>996</v>
+        <v>989.9</v>
       </c>
       <c r="E199" t="n">
-        <v>996</v>
+        <v>982.3</v>
       </c>
       <c r="F199" t="n">
-        <v>14</v>
+        <v>711.0326</v>
       </c>
       <c r="G199" t="n">
-        <v>1000.436666666667</v>
+        <v>1000.753333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7588,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7605,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C200" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D200" t="n">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E200" t="n">
-        <v>989.9</v>
+        <v>996</v>
       </c>
       <c r="F200" t="n">
-        <v>1415.9599</v>
+        <v>14</v>
       </c>
       <c r="G200" t="n">
-        <v>1000.053333333333</v>
+        <v>1000.436666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7629,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7646,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="C201" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D201" t="n">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="E201" t="n">
-        <v>1006</v>
+        <v>989.9</v>
       </c>
       <c r="F201" t="n">
-        <v>2864.3957</v>
+        <v>1415.9599</v>
       </c>
       <c r="G201" t="n">
-        <v>999.9366666666666</v>
+        <v>1000.053333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7670,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7687,7 +7433,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C202" t="n">
         <v>1007</v>
@@ -7696,13 +7442,13 @@
         <v>1007</v>
       </c>
       <c r="E202" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F202" t="n">
-        <v>1719.6629</v>
+        <v>2864.3957</v>
       </c>
       <c r="G202" t="n">
-        <v>999.67</v>
+        <v>999.9366666666666</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7711,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7740,10 +7480,10 @@
         <v>1007</v>
       </c>
       <c r="F203" t="n">
-        <v>2631.5527</v>
+        <v>1719.6629</v>
       </c>
       <c r="G203" t="n">
-        <v>999.5533333333333</v>
+        <v>999.67</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7752,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7769,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C204" t="n">
         <v>1007</v>
       </c>
       <c r="D204" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E204" t="n">
         <v>1007</v>
       </c>
       <c r="F204" t="n">
-        <v>62.2341</v>
+        <v>2631.5527</v>
       </c>
       <c r="G204" t="n">
-        <v>999.42</v>
+        <v>999.5533333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7793,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7810,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C205" t="n">
         <v>1007</v>
       </c>
       <c r="D205" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E205" t="n">
         <v>1007</v>
       </c>
       <c r="F205" t="n">
-        <v>1.2093</v>
+        <v>62.2341</v>
       </c>
       <c r="G205" t="n">
-        <v>999.2866666666666</v>
+        <v>999.42</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7834,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7854,16 +7576,16 @@
         <v>1007</v>
       </c>
       <c r="C206" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="D206" t="n">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="E206" t="n">
         <v>1007</v>
       </c>
       <c r="F206" t="n">
-        <v>936.8861000000001</v>
+        <v>1.2093</v>
       </c>
       <c r="G206" t="n">
         <v>999.2866666666666</v>
@@ -7875,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7892,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="C207" t="n">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D207" t="n">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E207" t="n">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="F207" t="n">
-        <v>250.8209</v>
+        <v>936.8861000000001</v>
       </c>
       <c r="G207" t="n">
-        <v>999.6949999999999</v>
+        <v>999.2866666666666</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7916,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7933,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C208" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D208" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E208" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F208" t="n">
-        <v>126.4718</v>
+        <v>250.8209</v>
       </c>
       <c r="G208" t="n">
-        <v>999.8283333333333</v>
+        <v>999.6949999999999</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7957,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7977,19 +7681,19 @@
         <v>1021</v>
       </c>
       <c r="C209" t="n">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="D209" t="n">
         <v>1021</v>
       </c>
       <c r="E209" t="n">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="F209" t="n">
-        <v>689.7017</v>
+        <v>126.4718</v>
       </c>
       <c r="G209" t="n">
-        <v>999.8616666666666</v>
+        <v>999.8283333333333</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7998,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8015,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C210" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D210" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="E210" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F210" t="n">
-        <v>85.3856</v>
+        <v>689.7017</v>
       </c>
       <c r="G210" t="n">
-        <v>999.895</v>
+        <v>999.8616666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8039,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8056,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C211" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="D211" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E211" t="n">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="F211" t="n">
-        <v>235.148</v>
+        <v>85.3856</v>
       </c>
       <c r="G211" t="n">
-        <v>1000.136666666667</v>
+        <v>999.895</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8080,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8097,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="C212" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="D212" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="E212" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="F212" t="n">
-        <v>132.1281</v>
+        <v>235.148</v>
       </c>
       <c r="G212" t="n">
-        <v>1000.228333333333</v>
+        <v>1000.136666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8121,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8150,10 +7830,10 @@
         <v>1001</v>
       </c>
       <c r="F213" t="n">
-        <v>136.6367</v>
+        <v>132.1281</v>
       </c>
       <c r="G213" t="n">
-        <v>1000.32</v>
+        <v>1000.228333333333</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8162,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8179,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C214" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="D214" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="E214" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="F214" t="n">
-        <v>0.5</v>
+        <v>136.6367</v>
       </c>
       <c r="G214" t="n">
-        <v>1000.611666666667</v>
+        <v>1000.32</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8203,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8220,22 +7888,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="C215" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="D215" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E215" t="n">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F215" t="n">
-        <v>293.0451</v>
+        <v>0.5</v>
       </c>
       <c r="G215" t="n">
-        <v>1000.561666666667</v>
+        <v>1000.611666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8244,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8261,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="C216" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="D216" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E216" t="n">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="F216" t="n">
-        <v>534.7063000000001</v>
+        <v>293.0451</v>
       </c>
       <c r="G216" t="n">
-        <v>1000.678333333333</v>
+        <v>1000.561666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8285,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8302,7 +7958,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C217" t="n">
         <v>1003</v>
@@ -8311,13 +7967,13 @@
         <v>1003</v>
       </c>
       <c r="E217" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F217" t="n">
-        <v>194.707</v>
+        <v>534.7063000000001</v>
       </c>
       <c r="G217" t="n">
-        <v>1000.778333333333</v>
+        <v>1000.678333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8326,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8343,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C218" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="D218" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E218" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F218" t="n">
-        <v>81.3515</v>
+        <v>194.707</v>
       </c>
       <c r="G218" t="n">
-        <v>1000.928333333333</v>
+        <v>1000.778333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8367,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8384,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="C219" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="D219" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E219" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="F219" t="n">
-        <v>36.635</v>
+        <v>81.3515</v>
       </c>
       <c r="G219" t="n">
-        <v>1001.011666666667</v>
+        <v>1000.928333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8408,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8425,22 +8063,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="C220" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="D220" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="E220" t="n">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="F220" t="n">
-        <v>144.9481</v>
+        <v>36.635</v>
       </c>
       <c r="G220" t="n">
-        <v>1000.828333333333</v>
+        <v>1001.011666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8449,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8466,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C221" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D221" t="n">
         <v>997</v>
       </c>
       <c r="E221" t="n">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F221" t="n">
-        <v>534.0782</v>
+        <v>144.9481</v>
       </c>
       <c r="G221" t="n">
-        <v>1000.545</v>
+        <v>1000.828333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8490,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8507,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>995.7</v>
+        <v>996</v>
       </c>
       <c r="C222" t="n">
-        <v>995.2</v>
+        <v>996</v>
       </c>
       <c r="D222" t="n">
-        <v>995.7</v>
+        <v>997</v>
       </c>
       <c r="E222" t="n">
-        <v>995.2</v>
+        <v>996</v>
       </c>
       <c r="F222" t="n">
-        <v>1715.8636</v>
+        <v>534.0782</v>
       </c>
       <c r="G222" t="n">
-        <v>1000.515</v>
+        <v>1000.545</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8531,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8548,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>995.2</v>
+        <v>995.7</v>
       </c>
       <c r="C223" t="n">
         <v>995.2</v>
       </c>
       <c r="D223" t="n">
-        <v>995.2</v>
+        <v>995.7</v>
       </c>
       <c r="E223" t="n">
         <v>995.2</v>
       </c>
       <c r="F223" t="n">
-        <v>401.2386</v>
+        <v>1715.8636</v>
       </c>
       <c r="G223" t="n">
-        <v>1000.51</v>
+        <v>1000.515</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8572,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8589,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>983.7</v>
+        <v>995.2</v>
       </c>
       <c r="C224" t="n">
-        <v>983.7</v>
+        <v>995.2</v>
       </c>
       <c r="D224" t="n">
-        <v>983.7</v>
+        <v>995.2</v>
       </c>
       <c r="E224" t="n">
-        <v>983.7</v>
+        <v>995.2</v>
       </c>
       <c r="F224" t="n">
-        <v>1089.7525</v>
+        <v>401.2386</v>
       </c>
       <c r="G224" t="n">
-        <v>1000.313333333333</v>
+        <v>1000.51</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8613,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8633,19 +8241,19 @@
         <v>983.7</v>
       </c>
       <c r="C225" t="n">
-        <v>983.5</v>
+        <v>983.7</v>
       </c>
       <c r="D225" t="n">
         <v>983.7</v>
       </c>
       <c r="E225" t="n">
-        <v>983.5</v>
+        <v>983.7</v>
       </c>
       <c r="F225" t="n">
-        <v>949.548</v>
+        <v>1089.7525</v>
       </c>
       <c r="G225" t="n">
-        <v>1000.113333333333</v>
+        <v>1000.313333333333</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8654,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8671,22 +8273,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>995</v>
+        <v>983.7</v>
       </c>
       <c r="C226" t="n">
-        <v>990.1</v>
+        <v>983.5</v>
       </c>
       <c r="D226" t="n">
-        <v>995</v>
+        <v>983.7</v>
       </c>
       <c r="E226" t="n">
-        <v>990.1</v>
+        <v>983.5</v>
       </c>
       <c r="F226" t="n">
-        <v>43.1696</v>
+        <v>949.548</v>
       </c>
       <c r="G226" t="n">
-        <v>1000.031666666666</v>
+        <v>1000.113333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8695,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8712,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>984.6</v>
+        <v>995</v>
       </c>
       <c r="C227" t="n">
-        <v>983</v>
+        <v>990.1</v>
       </c>
       <c r="D227" t="n">
-        <v>984.6</v>
+        <v>995</v>
       </c>
       <c r="E227" t="n">
-        <v>983</v>
+        <v>990.1</v>
       </c>
       <c r="F227" t="n">
-        <v>1115.4487</v>
+        <v>43.1696</v>
       </c>
       <c r="G227" t="n">
-        <v>999.8733333333331</v>
+        <v>1000.031666666666</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8736,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8753,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>989.8</v>
+        <v>984.6</v>
       </c>
       <c r="C228" t="n">
         <v>983</v>
       </c>
       <c r="D228" t="n">
-        <v>989.8</v>
+        <v>984.6</v>
       </c>
       <c r="E228" t="n">
         <v>983</v>
       </c>
       <c r="F228" t="n">
-        <v>600</v>
+        <v>1115.4487</v>
       </c>
       <c r="G228" t="n">
-        <v>999.6899999999998</v>
+        <v>999.8733333333331</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8777,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8794,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>986.9</v>
+        <v>989.8</v>
       </c>
       <c r="C229" t="n">
-        <v>986.9</v>
+        <v>983</v>
       </c>
       <c r="D229" t="n">
-        <v>986.9</v>
+        <v>989.8</v>
       </c>
       <c r="E229" t="n">
-        <v>986.9</v>
+        <v>983</v>
       </c>
       <c r="F229" t="n">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="G229" t="n">
-        <v>999.5949999999998</v>
+        <v>999.6899999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8818,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8835,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>985.3</v>
+        <v>986.9</v>
       </c>
       <c r="C230" t="n">
-        <v>985.3</v>
+        <v>986.9</v>
       </c>
       <c r="D230" t="n">
-        <v>985.3</v>
+        <v>986.9</v>
       </c>
       <c r="E230" t="n">
-        <v>985.3</v>
+        <v>986.9</v>
       </c>
       <c r="F230" t="n">
         <v>4</v>
       </c>
       <c r="G230" t="n">
-        <v>999.1833333333332</v>
+        <v>999.5949999999998</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8859,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8888,10 +8460,10 @@
         <v>985.3</v>
       </c>
       <c r="F231" t="n">
-        <v>538.9547</v>
+        <v>4</v>
       </c>
       <c r="G231" t="n">
-        <v>999.0716666666666</v>
+        <v>999.1833333333332</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8900,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8929,10 +8495,10 @@
         <v>985.3</v>
       </c>
       <c r="F232" t="n">
-        <v>309.0638</v>
+        <v>538.9547</v>
       </c>
       <c r="G232" t="n">
-        <v>998.9599999999999</v>
+        <v>999.0716666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8941,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8961,19 +8521,19 @@
         <v>985.3</v>
       </c>
       <c r="C233" t="n">
-        <v>980.4</v>
+        <v>985.3</v>
       </c>
       <c r="D233" t="n">
         <v>985.3</v>
       </c>
       <c r="E233" t="n">
-        <v>980.4</v>
+        <v>985.3</v>
       </c>
       <c r="F233" t="n">
-        <v>4356.8156</v>
+        <v>309.0638</v>
       </c>
       <c r="G233" t="n">
-        <v>998.775</v>
+        <v>998.9599999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8982,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8999,22 +8553,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>990</v>
+        <v>985.3</v>
       </c>
       <c r="C234" t="n">
-        <v>990</v>
+        <v>980.4</v>
       </c>
       <c r="D234" t="n">
-        <v>990</v>
+        <v>985.3</v>
       </c>
       <c r="E234" t="n">
-        <v>990</v>
+        <v>980.4</v>
       </c>
       <c r="F234" t="n">
-        <v>4</v>
+        <v>4356.8156</v>
       </c>
       <c r="G234" t="n">
-        <v>998.475</v>
+        <v>998.775</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9023,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9052,10 +8600,10 @@
         <v>990</v>
       </c>
       <c r="F235" t="n">
-        <v>164.7631</v>
+        <v>4</v>
       </c>
       <c r="G235" t="n">
-        <v>998.275</v>
+        <v>998.475</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9064,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9081,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="C236" t="n">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="D236" t="n">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="E236" t="n">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="F236" t="n">
-        <v>161.215</v>
+        <v>164.7631</v>
       </c>
       <c r="G236" t="n">
-        <v>998.5416666666666</v>
+        <v>998.275</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9105,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9122,7 +8658,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="C237" t="n">
         <v>1024</v>
@@ -9131,13 +8667,13 @@
         <v>1024</v>
       </c>
       <c r="E237" t="n">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="F237" t="n">
-        <v>264.9883</v>
+        <v>161.215</v>
       </c>
       <c r="G237" t="n">
-        <v>998.8416666666667</v>
+        <v>998.5416666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9146,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9163,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C238" t="n">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="D238" t="n">
-        <v>1052</v>
+        <v>1024</v>
       </c>
       <c r="E238" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F238" t="n">
-        <v>9151.4967</v>
+        <v>264.9883</v>
       </c>
       <c r="G238" t="n">
-        <v>999.575</v>
+        <v>998.8416666666667</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9187,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9204,22 +8728,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="C239" t="n">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="D239" t="n">
-        <v>1069</v>
+        <v>1052</v>
       </c>
       <c r="E239" t="n">
-        <v>1047</v>
+        <v>1025</v>
       </c>
       <c r="F239" t="n">
-        <v>8484.5174405</v>
+        <v>9151.4967</v>
       </c>
       <c r="G239" t="n">
-        <v>1000.691666666667</v>
+        <v>999.575</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9228,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9245,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C240" t="n">
         <v>1057</v>
       </c>
       <c r="D240" t="n">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="E240" t="n">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="F240" t="n">
-        <v>1149.5488</v>
+        <v>8484.5174405</v>
       </c>
       <c r="G240" t="n">
-        <v>1001.808333333333</v>
+        <v>1000.691666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9269,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9286,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="C241" t="n">
-        <v>1023</v>
+        <v>1057</v>
       </c>
       <c r="D241" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E241" t="n">
         <v>1057</v>
       </c>
-      <c r="E241" t="n">
-        <v>1023</v>
-      </c>
       <c r="F241" t="n">
-        <v>5927.90643437</v>
+        <v>1149.5488</v>
       </c>
       <c r="G241" t="n">
-        <v>1002.191666666667</v>
+        <v>1001.808333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9310,16 +8822,10 @@
         <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>1008</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
-        <v>1.009880952380952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -9327,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="C242" t="n">
-        <v>986.2</v>
+        <v>1023</v>
       </c>
       <c r="D242" t="n">
-        <v>1016</v>
+        <v>1057</v>
       </c>
       <c r="E242" t="n">
-        <v>986.2</v>
+        <v>1023</v>
       </c>
       <c r="F242" t="n">
-        <v>1961.7997</v>
+        <v>5927.90643437</v>
       </c>
       <c r="G242" t="n">
-        <v>1002.011666666667</v>
+        <v>1002.191666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9362,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="C243" t="n">
-        <v>1015</v>
+        <v>986.2</v>
       </c>
       <c r="D243" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E243" t="n">
-        <v>1010</v>
+        <v>986.2</v>
       </c>
       <c r="F243" t="n">
-        <v>139.1128</v>
+        <v>1961.7997</v>
       </c>
       <c r="G243" t="n">
-        <v>1002.128333333333</v>
+        <v>1002.011666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9397,7 +8903,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C244" t="n">
         <v>1015</v>
@@ -9406,13 +8912,13 @@
         <v>1015</v>
       </c>
       <c r="E244" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="F244" t="n">
-        <v>646.321</v>
+        <v>139.1128</v>
       </c>
       <c r="G244" t="n">
-        <v>1002.245</v>
+        <v>1002.128333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9435,19 +8941,19 @@
         <v>1015</v>
       </c>
       <c r="C245" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D245" t="n">
         <v>1015</v>
       </c>
       <c r="E245" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F245" t="n">
-        <v>88.1377</v>
+        <v>646.321</v>
       </c>
       <c r="G245" t="n">
-        <v>1002.395</v>
+        <v>1002.245</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9467,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C246" t="n">
         <v>1014</v>
       </c>
       <c r="D246" t="n">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E246" t="n">
         <v>1014</v>
       </c>
       <c r="F246" t="n">
-        <v>932.6132</v>
+        <v>88.1377</v>
       </c>
       <c r="G246" t="n">
-        <v>1002.545</v>
+        <v>1002.395</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9502,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C247" t="n">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="D247" t="n">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="E247" t="n">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="F247" t="n">
-        <v>2782.9737</v>
+        <v>932.6132</v>
       </c>
       <c r="G247" t="n">
-        <v>1002.878333333333</v>
+        <v>1002.545</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9537,7 +9043,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="C248" t="n">
         <v>1028</v>
@@ -9546,13 +9052,13 @@
         <v>1028</v>
       </c>
       <c r="E248" t="n">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="F248" t="n">
-        <v>1681.6816</v>
+        <v>2782.9737</v>
       </c>
       <c r="G248" t="n">
-        <v>1003.385</v>
+        <v>1002.878333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9572,22 +9078,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C249" t="n">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="D249" t="n">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="E249" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F249" t="n">
-        <v>882.6825</v>
+        <v>1681.6816</v>
       </c>
       <c r="G249" t="n">
-        <v>1004.301666666667</v>
+        <v>1003.385</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9607,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C250" t="n">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D250" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="E250" t="n">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="F250" t="n">
-        <v>9451.2839</v>
+        <v>882.6825</v>
       </c>
       <c r="G250" t="n">
-        <v>1004.985</v>
+        <v>1004.301666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9642,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="C251" t="n">
         <v>1046</v>
       </c>
       <c r="D251" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E251" t="n">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="F251" t="n">
-        <v>697.3964999999999</v>
+        <v>9451.2839</v>
       </c>
       <c r="G251" t="n">
-        <v>1005.901666666667</v>
+        <v>1004.985</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9677,22 +9183,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1032</v>
+        <v>1046</v>
       </c>
       <c r="C252" t="n">
-        <v>1032</v>
+        <v>1046</v>
       </c>
       <c r="D252" t="n">
-        <v>1032</v>
+        <v>1046</v>
       </c>
       <c r="E252" t="n">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="F252" t="n">
-        <v>274.2752</v>
+        <v>697.3964999999999</v>
       </c>
       <c r="G252" t="n">
-        <v>1006.601666666667</v>
+        <v>1005.901666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9712,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C253" t="n">
         <v>1032</v>
       </c>
       <c r="D253" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E253" t="n">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="F253" t="n">
-        <v>614.6806</v>
+        <v>274.2752</v>
       </c>
       <c r="G253" t="n">
-        <v>1007.326666666667</v>
+        <v>1006.601666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9747,22 +9253,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C254" t="n">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="D254" t="n">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="E254" t="n">
-        <v>1006</v>
+        <v>1032</v>
       </c>
       <c r="F254" t="n">
-        <v>2</v>
+        <v>614.6806</v>
       </c>
       <c r="G254" t="n">
-        <v>1007.635</v>
+        <v>1007.326666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9782,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C255" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="D255" t="n">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="E255" t="n">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="F255" t="n">
-        <v>1169.9365</v>
+        <v>2</v>
       </c>
       <c r="G255" t="n">
-        <v>1008.285</v>
+        <v>1007.635</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9817,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="C256" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="D256" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="E256" t="n">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="F256" t="n">
-        <v>230.7808</v>
+        <v>1169.9365</v>
       </c>
       <c r="G256" t="n">
-        <v>1008.618333333333</v>
+        <v>1008.285</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9852,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="C257" t="n">
-        <v>991.8</v>
+        <v>1005</v>
       </c>
       <c r="D257" t="n">
-        <v>1022</v>
+        <v>1005</v>
       </c>
       <c r="E257" t="n">
-        <v>991.8</v>
+        <v>1005</v>
       </c>
       <c r="F257" t="n">
-        <v>1015.3539</v>
+        <v>230.7808</v>
       </c>
       <c r="G257" t="n">
-        <v>1008.796666666667</v>
+        <v>1008.618333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9887,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C258" t="n">
         <v>991.8</v>
       </c>
-      <c r="C258" t="n">
-        <v>1000</v>
-      </c>
       <c r="D258" t="n">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="E258" t="n">
-        <v>991.3</v>
+        <v>991.8</v>
       </c>
       <c r="F258" t="n">
-        <v>131.1937</v>
+        <v>1015.3539</v>
       </c>
       <c r="G258" t="n">
-        <v>1008.965</v>
+        <v>1008.796666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9922,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1003</v>
+        <v>991.8</v>
       </c>
       <c r="C259" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="D259" t="n">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="E259" t="n">
-        <v>1000</v>
+        <v>991.3</v>
       </c>
       <c r="F259" t="n">
-        <v>2959.4432</v>
+        <v>131.1937</v>
       </c>
       <c r="G259" t="n">
-        <v>1009.365</v>
+        <v>1008.965</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9957,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="C260" t="n">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="D260" t="n">
-        <v>1037</v>
+        <v>1020</v>
       </c>
       <c r="E260" t="n">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="F260" t="n">
-        <v>2799.143</v>
+        <v>2959.4432</v>
       </c>
       <c r="G260" t="n">
-        <v>1009.965</v>
+        <v>1009.365</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9992,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C261" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D261" t="n">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="E261" t="n">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="F261" t="n">
-        <v>68.1972</v>
+        <v>2799.143</v>
       </c>
       <c r="G261" t="n">
-        <v>1010.348333333333</v>
+        <v>1009.965</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10030,19 +9536,19 @@
         <v>1030</v>
       </c>
       <c r="C262" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="D262" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="E262" t="n">
         <v>1030</v>
       </c>
       <c r="F262" t="n">
-        <v>4229.7355</v>
+        <v>68.1972</v>
       </c>
       <c r="G262" t="n">
-        <v>1011.031666666667</v>
+        <v>1010.348333333333</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10062,22 +9568,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="C263" t="n">
         <v>1048</v>
       </c>
       <c r="D263" t="n">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="E263" t="n">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="F263" t="n">
-        <v>2315.5944</v>
+        <v>4229.7355</v>
       </c>
       <c r="G263" t="n">
-        <v>1011.715</v>
+        <v>1011.031666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10097,22 +9603,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1041</v>
+        <v>1048</v>
       </c>
       <c r="C264" t="n">
-        <v>1034</v>
+        <v>1048</v>
       </c>
       <c r="D264" t="n">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="E264" t="n">
-        <v>1023</v>
+        <v>1048</v>
       </c>
       <c r="F264" t="n">
-        <v>5852.7443</v>
+        <v>2315.5944</v>
       </c>
       <c r="G264" t="n">
-        <v>1012.165</v>
+        <v>1011.715</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10132,22 +9638,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="C265" t="n">
         <v>1034</v>
       </c>
       <c r="D265" t="n">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="E265" t="n">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="F265" t="n">
-        <v>3550.1865</v>
+        <v>5852.7443</v>
       </c>
       <c r="G265" t="n">
-        <v>1012.615</v>
+        <v>1012.165</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10167,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C266" t="n">
         <v>1034</v>
       </c>
       <c r="D266" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E266" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F266" t="n">
-        <v>127.9061</v>
+        <v>3550.1865</v>
       </c>
       <c r="G266" t="n">
-        <v>1012.948333333333</v>
+        <v>1012.615</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10202,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="C267" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="D267" t="n">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="E267" t="n">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="F267" t="n">
-        <v>0.48</v>
+        <v>127.9061</v>
       </c>
       <c r="G267" t="n">
-        <v>1013.381666666667</v>
+        <v>1012.948333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10237,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="C268" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D268" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E268" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="F268" t="n">
-        <v>494.1374</v>
+        <v>0.48</v>
       </c>
       <c r="G268" t="n">
-        <v>1013.781666666667</v>
+        <v>1013.381666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10272,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C269" t="n">
         <v>1045</v>
-      </c>
-      <c r="C269" t="n">
-        <v>1044</v>
       </c>
       <c r="D269" t="n">
         <v>1045</v>
       </c>
       <c r="E269" t="n">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="F269" t="n">
-        <v>244.4325</v>
+        <v>494.1374</v>
       </c>
       <c r="G269" t="n">
-        <v>1014.281666666667</v>
+        <v>1013.781666666667</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10307,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="C270" t="n">
-        <v>1035</v>
+        <v>1044</v>
       </c>
       <c r="D270" t="n">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="E270" t="n">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="F270" t="n">
-        <v>2.6535</v>
+        <v>244.4325</v>
       </c>
       <c r="G270" t="n">
-        <v>1014.648333333333</v>
+        <v>1014.281666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10342,22 +9848,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C271" t="n">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="D271" t="n">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E271" t="n">
-        <v>1000</v>
+        <v>1035</v>
       </c>
       <c r="F271" t="n">
-        <v>4929.9674</v>
+        <v>2.6535</v>
       </c>
       <c r="G271" t="n">
-        <v>1014.481666666667</v>
+        <v>1014.648333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10377,22 +9883,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1001</v>
+        <v>1040</v>
       </c>
       <c r="C272" t="n">
         <v>1000</v>
       </c>
       <c r="D272" t="n">
-        <v>1001</v>
+        <v>1040</v>
       </c>
       <c r="E272" t="n">
         <v>1000</v>
       </c>
       <c r="F272" t="n">
-        <v>907.5426</v>
+        <v>4929.9674</v>
       </c>
       <c r="G272" t="n">
-        <v>1014.465</v>
+        <v>1014.481666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10412,22 +9918,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="C273" t="n">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="D273" t="n">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="E273" t="n">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="F273" t="n">
-        <v>171.1812</v>
+        <v>907.5426</v>
       </c>
       <c r="G273" t="n">
-        <v>1014.665</v>
+        <v>1014.465</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10450,19 +9956,19 @@
         <v>1013</v>
       </c>
       <c r="C274" t="n">
-        <v>1033</v>
+        <v>1013</v>
       </c>
       <c r="D274" t="n">
-        <v>1033</v>
+        <v>1014</v>
       </c>
       <c r="E274" t="n">
         <v>1013</v>
       </c>
       <c r="F274" t="n">
-        <v>977.98964646</v>
+        <v>171.1812</v>
       </c>
       <c r="G274" t="n">
-        <v>1014.998333333333</v>
+        <v>1014.665</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10482,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="C275" t="n">
-        <v>1005</v>
+        <v>1033</v>
       </c>
       <c r="D275" t="n">
-        <v>1006</v>
+        <v>1033</v>
       </c>
       <c r="E275" t="n">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="F275" t="n">
-        <v>405.6683</v>
+        <v>977.98964646</v>
       </c>
       <c r="G275" t="n">
-        <v>1014.965</v>
+        <v>1014.998333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10517,22 +10023,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="C276" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="D276" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E276" t="n">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F276" t="n">
-        <v>808.5549999999999</v>
+        <v>405.6683</v>
       </c>
       <c r="G276" t="n">
-        <v>1014.898333333333</v>
+        <v>1014.965</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10552,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C277" t="n">
         <v>999</v>
       </c>
       <c r="D277" t="n">
-        <v>999.1</v>
+        <v>1002</v>
       </c>
       <c r="E277" t="n">
         <v>999</v>
       </c>
       <c r="F277" t="n">
-        <v>310.5739</v>
+        <v>808.5549999999999</v>
       </c>
       <c r="G277" t="n">
-        <v>1014.831666666667</v>
+        <v>1014.898333333333</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10587,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="C278" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="D278" t="n">
-        <v>996</v>
+        <v>999.1</v>
       </c>
       <c r="E278" t="n">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F278" t="n">
-        <v>1568.2753</v>
+        <v>310.5739</v>
       </c>
       <c r="G278" t="n">
-        <v>1014.615</v>
+        <v>1014.831666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10622,22 +10128,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>994.3</v>
+        <v>995</v>
       </c>
       <c r="C279" t="n">
-        <v>994.3</v>
+        <v>993</v>
       </c>
       <c r="D279" t="n">
-        <v>994.3</v>
+        <v>996</v>
       </c>
       <c r="E279" t="n">
-        <v>994.3</v>
+        <v>993</v>
       </c>
       <c r="F279" t="n">
-        <v>348.0556</v>
+        <v>1568.2753</v>
       </c>
       <c r="G279" t="n">
-        <v>1014.486666666667</v>
+        <v>1014.615</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10657,22 +10163,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1018</v>
+        <v>994.3</v>
       </c>
       <c r="C280" t="n">
-        <v>1018</v>
+        <v>994.3</v>
       </c>
       <c r="D280" t="n">
-        <v>1018</v>
+        <v>994.3</v>
       </c>
       <c r="E280" t="n">
-        <v>1018</v>
+        <v>994.3</v>
       </c>
       <c r="F280" t="n">
-        <v>10.1053</v>
+        <v>348.0556</v>
       </c>
       <c r="G280" t="n">
-        <v>1014.836666666667</v>
+        <v>1014.486666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10692,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="C281" t="n">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="D281" t="n">
-        <v>997</v>
+        <v>1018</v>
       </c>
       <c r="E281" t="n">
-        <v>993</v>
+        <v>1018</v>
       </c>
       <c r="F281" t="n">
-        <v>3425.8961</v>
+        <v>10.1053</v>
       </c>
       <c r="G281" t="n">
-        <v>1014.786666666667</v>
+        <v>1014.836666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10727,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="C282" t="n">
         <v>993</v>
       </c>
       <c r="D282" t="n">
+        <v>997</v>
+      </c>
+      <c r="E282" t="n">
         <v>993</v>
       </c>
-      <c r="E282" t="n">
-        <v>992</v>
-      </c>
       <c r="F282" t="n">
-        <v>1095.3608</v>
+        <v>3425.8961</v>
       </c>
       <c r="G282" t="n">
-        <v>1014.75</v>
+        <v>1014.786666666667</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10765,19 +10271,19 @@
         <v>993</v>
       </c>
       <c r="C283" t="n">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="D283" t="n">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="E283" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F283" t="n">
-        <v>83.78189999999999</v>
+        <v>1095.3608</v>
       </c>
       <c r="G283" t="n">
-        <v>1015.13</v>
+        <v>1014.75</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10797,32 +10303,38 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C284" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D284" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E284" t="n">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="F284" t="n">
-        <v>109.0376</v>
+        <v>83.78189999999999</v>
       </c>
       <c r="G284" t="n">
-        <v>1015.651666666667</v>
+        <v>1015.13</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>993</v>
+      </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10832,22 +10344,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="C285" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D285" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E285" t="n">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="F285" t="n">
-        <v>0.6936</v>
+        <v>109.0376</v>
       </c>
       <c r="G285" t="n">
-        <v>1016.21</v>
+        <v>1015.651666666667</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10857,7 +10369,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10867,22 +10383,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C286" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="D286" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="E286" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F286" t="n">
-        <v>364.5376</v>
+        <v>0.6936</v>
       </c>
       <c r="G286" t="n">
-        <v>1016.575</v>
+        <v>1016.21</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10892,7 +10408,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10905,19 +10425,19 @@
         <v>1012</v>
       </c>
       <c r="C287" t="n">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="D287" t="n">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="E287" t="n">
         <v>1012</v>
       </c>
       <c r="F287" t="n">
-        <v>1583.559</v>
+        <v>364.5376</v>
       </c>
       <c r="G287" t="n">
-        <v>1017.258333333334</v>
+        <v>1016.575</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10927,7 +10447,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10937,22 +10461,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C288" t="n">
         <v>1024</v>
       </c>
-      <c r="C288" t="n">
-        <v>1035</v>
-      </c>
       <c r="D288" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="E288" t="n">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="F288" t="n">
-        <v>641.0475</v>
+        <v>1583.559</v>
       </c>
       <c r="G288" t="n">
-        <v>1018.125</v>
+        <v>1017.258333333334</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10962,7 +10486,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10972,7 +10500,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="C289" t="n">
         <v>1035</v>
@@ -10981,13 +10509,13 @@
         <v>1035</v>
       </c>
       <c r="E289" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F289" t="n">
-        <v>0.5276999999999999</v>
+        <v>641.0475</v>
       </c>
       <c r="G289" t="n">
-        <v>1018.926666666667</v>
+        <v>1018.125</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10997,7 +10525,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11007,22 +10539,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="C290" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="D290" t="n">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E290" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="F290" t="n">
-        <v>467.9022</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="G290" t="n">
-        <v>1019.671666666667</v>
+        <v>1018.926666666667</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11032,7 +10564,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11042,22 +10578,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C291" t="n">
         <v>1030</v>
       </c>
       <c r="D291" t="n">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E291" t="n">
         <v>1030</v>
       </c>
       <c r="F291" t="n">
-        <v>44.3068</v>
+        <v>467.9022</v>
       </c>
       <c r="G291" t="n">
-        <v>1020.416666666667</v>
+        <v>1019.671666666667</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11067,7 +10603,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11077,22 +10617,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C292" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="D292" t="n">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E292" t="n">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="F292" t="n">
-        <v>137.9655</v>
+        <v>44.3068</v>
       </c>
       <c r="G292" t="n">
-        <v>1021.045</v>
+        <v>1020.416666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11102,8 +10642,51 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1027</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F293" t="n">
+        <v>137.9655</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1021.045</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M293" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest BHP.xlsx
+++ b/BackTest/2020-01-20 BackTest BHP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M293"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>1028.066666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>1023.323333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>7480.5465</v>
       </c>
       <c r="G3" t="n">
+        <v>1029.266666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>1023.273333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3228.1285</v>
       </c>
       <c r="G4" t="n">
+        <v>1031.333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>1023.44</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1310.5658</v>
       </c>
       <c r="G5" t="n">
+        <v>1033.866666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>1023.69</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>77</v>
       </c>
       <c r="G6" t="n">
+        <v>1035.4</v>
+      </c>
+      <c r="H6" t="n">
         <v>1023.956666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
+        <v>1036.333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>1024.29</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>6</v>
       </c>
       <c r="G8" t="n">
+        <v>1036.666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>1024.756666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>85.3614</v>
       </c>
       <c r="G9" t="n">
+        <v>1037.133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>1024.856666666667</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>13</v>
       </c>
       <c r="G10" t="n">
+        <v>1037.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>1024.923333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>416.4609</v>
       </c>
       <c r="G11" t="n">
+        <v>1035.866666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>1024.806666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
+        <v>1037.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>1025.323333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>37.149</v>
       </c>
       <c r="G13" t="n">
+        <v>1037.2</v>
+      </c>
+      <c r="H13" t="n">
         <v>1026.05</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>769.4398</v>
       </c>
       <c r="G14" t="n">
+        <v>1037.333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>1026.016666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>120</v>
       </c>
       <c r="G15" t="n">
+        <v>1037.8</v>
+      </c>
+      <c r="H15" t="n">
         <v>1026.15</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>230</v>
       </c>
       <c r="G16" t="n">
+        <v>1038.8</v>
+      </c>
+      <c r="H16" t="n">
         <v>1026.916666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>302</v>
       </c>
       <c r="G17" t="n">
+        <v>1039.466666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>1027.583333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>119</v>
       </c>
       <c r="G18" t="n">
+        <v>1040.4</v>
+      </c>
+      <c r="H18" t="n">
         <v>1028.316666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>596.5798</v>
       </c>
       <c r="G19" t="n">
+        <v>1040.4</v>
+      </c>
+      <c r="H19" t="n">
         <v>1029.033333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1378.1269</v>
       </c>
       <c r="G20" t="n">
+        <v>1040.333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>1029.5</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>33</v>
       </c>
       <c r="G21" t="n">
+        <v>1040.133333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>1029.916666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>16</v>
       </c>
       <c r="G22" t="n">
+        <v>1040.133333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>1030.3</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>8.994199999999999</v>
       </c>
       <c r="G23" t="n">
+        <v>1040.333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>1030.733333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>8.994199999999999</v>
       </c>
       <c r="G24" t="n">
+        <v>1040.4</v>
+      </c>
+      <c r="H24" t="n">
         <v>1030.983333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>189.9085</v>
       </c>
       <c r="G25" t="n">
+        <v>1041</v>
+      </c>
+      <c r="H25" t="n">
         <v>1031.4</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>192.8414</v>
       </c>
       <c r="G26" t="n">
+        <v>1042.666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>1031.6</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>109.641</v>
       </c>
       <c r="G27" t="n">
+        <v>1042.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>1031.65</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>465.5748</v>
       </c>
       <c r="G28" t="n">
+        <v>1042.533333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>1031.65</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
+        <v>1043.666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>1032.05</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1221.8874</v>
       </c>
       <c r="G30" t="n">
+        <v>1044.2</v>
+      </c>
+      <c r="H30" t="n">
         <v>1032.316666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
+        <v>1043.933333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>1032.533333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1584.9021</v>
       </c>
       <c r="G32" t="n">
+        <v>1044.2</v>
+      </c>
+      <c r="H32" t="n">
         <v>1032.8</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>0.5738</v>
       </c>
       <c r="G33" t="n">
+        <v>1044.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>1033.116666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>889.4398</v>
       </c>
       <c r="G34" t="n">
+        <v>1043.933333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>1033.266666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>18.3089</v>
       </c>
       <c r="G35" t="n">
+        <v>1043.866666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1033.666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>1491.1215</v>
       </c>
       <c r="G36" t="n">
+        <v>1043.4</v>
+      </c>
+      <c r="H36" t="n">
         <v>1034.033333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>44.7942</v>
       </c>
       <c r="G37" t="n">
+        <v>1042.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>1034.383333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>20</v>
       </c>
       <c r="G38" t="n">
+        <v>1041</v>
+      </c>
+      <c r="H38" t="n">
         <v>1034.433333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>415.8278</v>
       </c>
       <c r="G39" t="n">
+        <v>1039.666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>1034.483333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>1039.266666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>1035.066666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2367.6962</v>
       </c>
       <c r="G41" t="n">
+        <v>1039.733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>1035.533333333333</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>3745.4818</v>
       </c>
       <c r="G42" t="n">
+        <v>1040.4</v>
+      </c>
+      <c r="H42" t="n">
         <v>1035.85</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>1302.3792</v>
       </c>
       <c r="G43" t="n">
+        <v>1041.066666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>1036.233333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>22.0121</v>
       </c>
       <c r="G44" t="n">
+        <v>1040.266666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>1036.566666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>82.0103</v>
       </c>
       <c r="G45" t="n">
+        <v>1040.333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>1036.983333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>41.0051</v>
       </c>
       <c r="G46" t="n">
+        <v>1040.333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1037.433333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2.3829</v>
       </c>
       <c r="G47" t="n">
+        <v>1039.6</v>
+      </c>
+      <c r="H47" t="n">
         <v>1037.833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>20.483</v>
       </c>
       <c r="G48" t="n">
+        <v>1039.133333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>1038.3</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>38.2628</v>
       </c>
       <c r="G49" t="n">
+        <v>1038.666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>1038.583333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>46.2468</v>
       </c>
       <c r="G50" t="n">
+        <v>1038.4</v>
+      </c>
+      <c r="H50" t="n">
         <v>1039.116666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>345.2907</v>
       </c>
       <c r="G51" t="n">
+        <v>1037.466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1039.1</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>70.6343</v>
       </c>
       <c r="G52" t="n">
+        <v>1036.6</v>
+      </c>
+      <c r="H52" t="n">
         <v>1038.966666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>102.9304</v>
       </c>
       <c r="G53" t="n">
+        <v>1037.4</v>
+      </c>
+      <c r="H53" t="n">
         <v>1038.85</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>43.3996</v>
       </c>
       <c r="G54" t="n">
+        <v>1038.2</v>
+      </c>
+      <c r="H54" t="n">
         <v>1038.85</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>59.5309</v>
       </c>
       <c r="G55" t="n">
+        <v>1036.8</v>
+      </c>
+      <c r="H55" t="n">
         <v>1038.616666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>95.87390000000001</v>
       </c>
       <c r="G56" t="n">
+        <v>1035.466666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>1038.433333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>47.375</v>
       </c>
       <c r="G57" t="n">
+        <v>1034.066666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>1038.616666666667</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>97.8553</v>
       </c>
       <c r="G58" t="n">
+        <v>1033.066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>1038.466666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1.9883</v>
       </c>
       <c r="G59" t="n">
+        <v>1033</v>
+      </c>
+      <c r="H59" t="n">
         <v>1038.566666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>172.5767</v>
       </c>
       <c r="G60" t="n">
+        <v>1032.666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>1038.75</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>0.5</v>
       </c>
       <c r="G61" t="n">
+        <v>1032.4</v>
+      </c>
+      <c r="H61" t="n">
         <v>1038.866666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>1.9627</v>
       </c>
       <c r="G62" t="n">
+        <v>1032.066666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>1038.833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>266.2877</v>
       </c>
       <c r="G63" t="n">
+        <v>1031.866666666667</v>
+      </c>
+      <c r="H63" t="n">
         <v>1038.95</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>638.6468</v>
       </c>
       <c r="G64" t="n">
+        <v>1032.466666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>1038.866666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>32.7813</v>
       </c>
       <c r="G65" t="n">
+        <v>1032.266666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1038.716666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>6.2532</v>
       </c>
       <c r="G66" t="n">
+        <v>1033.333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>1038.583333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>252.89282296</v>
       </c>
       <c r="G67" t="n">
+        <v>1034.6</v>
+      </c>
+      <c r="H67" t="n">
         <v>1038.533333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>172.9036</v>
       </c>
       <c r="G68" t="n">
+        <v>1035.733333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>1038.616666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>32.6373</v>
       </c>
       <c r="G69" t="n">
+        <v>1036.933333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1038.8</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>664.6088</v>
       </c>
       <c r="G70" t="n">
+        <v>1038.6</v>
+      </c>
+      <c r="H70" t="n">
         <v>1038.916666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>54.9032</v>
       </c>
       <c r="G71" t="n">
+        <v>1040.133333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>1039.5</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>124.4824</v>
       </c>
       <c r="G72" t="n">
+        <v>1041.666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>1039.733333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>252.8928</v>
       </c>
       <c r="G73" t="n">
+        <v>1041.933333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1039.65</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>0.5</v>
       </c>
       <c r="G74" t="n">
+        <v>1042.266666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>1039.8</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>2032.2446</v>
       </c>
       <c r="G75" t="n">
+        <v>1041.466666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>1039.666666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>35.0521</v>
       </c>
       <c r="G76" t="n">
+        <v>1041.066666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>1039.433333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>5405.6472</v>
       </c>
       <c r="G77" t="n">
+        <v>1040.066666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>1038.983333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>447.9961</v>
       </c>
       <c r="G78" t="n">
+        <v>1038.266666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>1038.416666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>243.2699</v>
       </c>
       <c r="G79" t="n">
+        <v>1036.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>1037.866666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>235.8423</v>
       </c>
       <c r="G80" t="n">
+        <v>1034.533333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1037.266666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>0.5</v>
       </c>
       <c r="G81" t="n">
+        <v>1033.266666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>1036.866666666667</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
+        <v>1031.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>1036.35</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>48.3802</v>
       </c>
       <c r="G83" t="n">
+        <v>1028.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>1035.683333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>2313.5448</v>
       </c>
       <c r="G84" t="n">
+        <v>1025.8</v>
+      </c>
+      <c r="H84" t="n">
         <v>1035.15</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>0.5928</v>
       </c>
       <c r="G85" t="n">
+        <v>1023.733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1034.6</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>0.5887</v>
       </c>
       <c r="G86" t="n">
+        <v>1022.4</v>
+      </c>
+      <c r="H86" t="n">
         <v>1034.433333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>2068.1354</v>
       </c>
       <c r="G87" t="n">
+        <v>1020.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>1034.133333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>235.958</v>
       </c>
       <c r="G88" t="n">
+        <v>1020.333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>1034.1</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>199.0077</v>
       </c>
       <c r="G89" t="n">
+        <v>1019.333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>1033.716666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>9.6</v>
       </c>
       <c r="G90" t="n">
+        <v>1019.866666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>1033.583333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>408.4621</v>
       </c>
       <c r="G91" t="n">
+        <v>1019.533333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>1033.333333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>345.4406</v>
       </c>
       <c r="G92" t="n">
+        <v>1020.6</v>
+      </c>
+      <c r="H92" t="n">
         <v>1033.083333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>1</v>
       </c>
       <c r="G93" t="n">
+        <v>1022.666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>1032.983333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>1207.024</v>
       </c>
       <c r="G94" t="n">
+        <v>1024.866666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>1033.1</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>436.3373</v>
       </c>
       <c r="G95" t="n">
+        <v>1027.066666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>1033.066666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>515.4811</v>
       </c>
       <c r="G96" t="n">
+        <v>1028.666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>1033.183333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>443.5827</v>
       </c>
       <c r="G97" t="n">
+        <v>1030.6</v>
+      </c>
+      <c r="H97" t="n">
         <v>1033.3</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>487.1773</v>
       </c>
       <c r="G98" t="n">
+        <v>1032.466666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>1033.55</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>168.618</v>
       </c>
       <c r="G99" t="n">
+        <v>1034.066666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>1033.75</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>0.5</v>
       </c>
       <c r="G100" t="n">
+        <v>1036</v>
+      </c>
+      <c r="H100" t="n">
         <v>1033.783333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2155.9467</v>
       </c>
       <c r="G101" t="n">
+        <v>1035.533333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>1033.383333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>256.4787</v>
       </c>
       <c r="G102" t="n">
+        <v>1035.866666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>1033</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>56.5268</v>
       </c>
       <c r="G103" t="n">
+        <v>1034.933333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1032.566666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>2365.9957</v>
       </c>
       <c r="G104" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H104" t="n">
         <v>1032.15</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>8241.786899999999</v>
       </c>
       <c r="G105" t="n">
+        <v>1032.733333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1031.683333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>0.5</v>
       </c>
       <c r="G106" t="n">
+        <v>1032.933333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>1031.483333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>286.06921587</v>
       </c>
       <c r="G107" t="n">
+        <v>1033.266666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>1031.5</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>0.5</v>
       </c>
       <c r="G108" t="n">
+        <v>1032.6</v>
+      </c>
+      <c r="H108" t="n">
         <v>1031.35</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
+        <v>1031.066666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>1031.2</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>2753.0975</v>
       </c>
       <c r="G110" t="n">
+        <v>1029.466666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>1030.833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>1119.6709</v>
       </c>
       <c r="G111" t="n">
+        <v>1027.8</v>
+      </c>
+      <c r="H111" t="n">
         <v>1030.766666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>1</v>
       </c>
       <c r="G112" t="n">
+        <v>1026.266666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>1030.716666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>2000</v>
       </c>
       <c r="G113" t="n">
+        <v>1025.466666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>1030.566666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>270.3503</v>
       </c>
       <c r="G114" t="n">
+        <v>1025.466666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>1030.566666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>0.5</v>
       </c>
       <c r="G115" t="n">
+        <v>1024.666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>1030.75</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>311.92960271</v>
       </c>
       <c r="G116" t="n">
+        <v>1025.333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>1030.85</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>0.5</v>
       </c>
       <c r="G117" t="n">
+        <v>1026.266666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>1031.05</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>77.67100000000001</v>
       </c>
       <c r="G118" t="n">
+        <v>1027</v>
+      </c>
+      <c r="H118" t="n">
         <v>1031.05</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>312.4346</v>
       </c>
       <c r="G119" t="n">
+        <v>1027.533333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>1030.783333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
+        <v>1028.133333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>1030.55</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>0.9883</v>
       </c>
       <c r="G121" t="n">
+        <v>1028.133333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>1030.416666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>285.5693</v>
       </c>
       <c r="G122" t="n">
+        <v>1027.4</v>
+      </c>
+      <c r="H122" t="n">
         <v>1030.333333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>1258.3804</v>
       </c>
       <c r="G123" t="n">
+        <v>1026.533333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>1030.016666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>2400.4187</v>
       </c>
       <c r="G124" t="n">
+        <v>1026.4</v>
+      </c>
+      <c r="H124" t="n">
         <v>1029.683333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>0.5082</v>
       </c>
       <c r="G125" t="n">
+        <v>1026.866666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>1029.483333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>2593.446</v>
       </c>
       <c r="G126" t="n">
+        <v>1027.133333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>1029.216666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>18.8607</v>
       </c>
       <c r="G127" t="n">
+        <v>1027</v>
+      </c>
+      <c r="H127" t="n">
         <v>1028.816666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>0.9718172899999999</v>
       </c>
       <c r="G128" t="n">
+        <v>1027.466666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>1028.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>2223.5475</v>
       </c>
       <c r="G129" t="n">
+        <v>1026.866666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>1028.05</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>252.0328</v>
       </c>
       <c r="G130" t="n">
+        <v>1025.8</v>
+      </c>
+      <c r="H130" t="n">
         <v>1027.55</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>256.108</v>
       </c>
       <c r="G131" t="n">
+        <v>1024.933333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>1027.05</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>6571.5936</v>
       </c>
       <c r="G132" t="n">
+        <v>1023.4</v>
+      </c>
+      <c r="H132" t="n">
         <v>1026.483333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>3021.8665</v>
       </c>
       <c r="G133" t="n">
+        <v>1022.666666666667</v>
+      </c>
+      <c r="H133" t="n">
         <v>1026.233333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>104.1502</v>
       </c>
       <c r="G134" t="n">
+        <v>1022.066666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>1025.733333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>1018</v>
       </c>
       <c r="G135" t="n">
+        <v>1021.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>1025.516666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>44.1983</v>
       </c>
       <c r="G136" t="n">
+        <v>1020.133333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>1025.183333333333</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>60.8017</v>
       </c>
       <c r="G137" t="n">
+        <v>1019.466666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>1025.183333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>89.1983</v>
       </c>
       <c r="G138" t="n">
+        <v>1018.866666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>1025.166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
+        <v>1018.933333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>1025.316666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>51</v>
       </c>
       <c r="G140" t="n">
+        <v>1017.933333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>1025.333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>0.5</v>
       </c>
       <c r="G141" t="n">
+        <v>1017.733333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>1025.333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5773,21 @@
         <v>1645.3346</v>
       </c>
       <c r="G142" t="n">
+        <v>1017.266666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>1025.283333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5811,21 @@
         <v>2.2621</v>
       </c>
       <c r="G143" t="n">
+        <v>1016.866666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>1025.566666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5849,21 @@
         <v>797.076</v>
       </c>
       <c r="G144" t="n">
+        <v>1016.4</v>
+      </c>
+      <c r="H144" t="n">
         <v>1025.7</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5887,21 @@
         <v>3183.0812</v>
       </c>
       <c r="G145" t="n">
+        <v>1016.2</v>
+      </c>
+      <c r="H145" t="n">
         <v>1025.666666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5925,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
+        <v>1016</v>
+      </c>
+      <c r="H146" t="n">
         <v>1025.45</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5963,21 @@
         <v>1</v>
       </c>
       <c r="G147" t="n">
+        <v>1016</v>
+      </c>
+      <c r="H147" t="n">
         <v>1025.383333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6001,21 @@
         <v>2659.6885</v>
       </c>
       <c r="G148" t="n">
+        <v>1014.766666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>1024.841666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6039,21 @@
         <v>8.304600000000001</v>
       </c>
       <c r="G149" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="H149" t="n">
         <v>1024.575</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6077,21 @@
         <v>454.5277</v>
       </c>
       <c r="G150" t="n">
+        <v>1014.566666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>1024.191666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6115,21 @@
         <v>532.6391</v>
       </c>
       <c r="G151" t="n">
+        <v>1014.366666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>1023.891666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6153,21 @@
         <v>1754.8041</v>
       </c>
       <c r="G152" t="n">
+        <v>1013.133333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>1023.316666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6191,21 @@
         <v>1474.3735</v>
       </c>
       <c r="G153" t="n">
+        <v>1011.9</v>
+      </c>
+      <c r="H153" t="n">
         <v>1022.475</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6229,21 @@
         <v>2956.9525</v>
       </c>
       <c r="G154" t="n">
+        <v>1010.066666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>1021.616666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6267,21 @@
         <v>2225.2596</v>
       </c>
       <c r="G155" t="n">
+        <v>1008.766666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>1020.758333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6305,21 @@
         <v>261.36</v>
       </c>
       <c r="G156" t="n">
+        <v>1007.9</v>
+      </c>
+      <c r="H156" t="n">
         <v>1020.141666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6343,21 @@
         <v>1</v>
       </c>
       <c r="G157" t="n">
+        <v>1006.7</v>
+      </c>
+      <c r="H157" t="n">
         <v>1019.308333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6381,21 @@
         <v>248.219</v>
       </c>
       <c r="G158" t="n">
+        <v>1004.966666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>1018.691666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6419,21 @@
         <v>13</v>
       </c>
       <c r="G159" t="n">
+        <v>1003.833333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>1018.141666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6457,21 @@
         <v>0.141</v>
       </c>
       <c r="G160" t="n">
+        <v>1002.633333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>1017.325</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6495,21 @@
         <v>7.7794</v>
       </c>
       <c r="G161" t="n">
+        <v>1002.166666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>1017.108333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6533,21 @@
         <v>2</v>
       </c>
       <c r="G162" t="n">
+        <v>1002.1</v>
+      </c>
+      <c r="H162" t="n">
         <v>1016.941666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6571,21 @@
         <v>61.1942</v>
       </c>
       <c r="G163" t="n">
+        <v>1002.2</v>
+      </c>
+      <c r="H163" t="n">
         <v>1016.658333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6609,21 @@
         <v>1944.0189</v>
       </c>
       <c r="G164" t="n">
+        <v>1001.033333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>1016.333333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6647,21 @@
         <v>851.8429</v>
       </c>
       <c r="G165" t="n">
+        <v>999.9333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>1015.991666666667</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6685,21 @@
         <v>550.7068</v>
       </c>
       <c r="G166" t="n">
+        <v>998.9</v>
+      </c>
+      <c r="H166" t="n">
         <v>1015.383333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6723,21 @@
         <v>177.3936</v>
       </c>
       <c r="G167" t="n">
+        <v>998.8666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>1014.716666666667</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6761,21 @@
         <v>10</v>
       </c>
       <c r="G168" t="n">
+        <v>998.6666666666666</v>
+      </c>
+      <c r="H168" t="n">
         <v>1013.991666666667</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6799,21 @@
         <v>15.1</v>
       </c>
       <c r="G169" t="n">
+        <v>998.5666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>1013.491666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6837,21 @@
         <v>147.4767</v>
       </c>
       <c r="G170" t="n">
+        <v>998.3733333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>1012.985</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6875,25 @@
         <v>0.5</v>
       </c>
       <c r="G171" t="n">
+        <v>998.3733333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>1012.785</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="L171" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6917,27 @@
         <v>11571.7799</v>
       </c>
       <c r="G172" t="n">
+        <v>998.1066666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>1012.268333333333</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6961,27 @@
         <v>1733.8439</v>
       </c>
       <c r="G173" t="n">
+        <v>997.7733333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>1011.768333333333</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7005,27 @@
         <v>20</v>
       </c>
       <c r="G174" t="n">
+        <v>997.4066666666666</v>
+      </c>
+      <c r="H174" t="n">
         <v>1011.126666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7049,27 @@
         <v>2441.1974</v>
       </c>
       <c r="G175" t="n">
+        <v>998.14</v>
+      </c>
+      <c r="H175" t="n">
         <v>1010.693333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7093,27 @@
         <v>2</v>
       </c>
       <c r="G176" t="n">
+        <v>997.74</v>
+      </c>
+      <c r="H176" t="n">
         <v>1010.21</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7137,27 @@
         <v>0.5</v>
       </c>
       <c r="G177" t="n">
+        <v>997.4066666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>1009.726666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7181,27 @@
         <v>2</v>
       </c>
       <c r="G178" t="n">
+        <v>998.0066666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>1009.41</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7225,27 @@
         <v>5</v>
       </c>
       <c r="G179" t="n">
+        <v>998.84</v>
+      </c>
+      <c r="H179" t="n">
         <v>1009.16</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7269,27 @@
         <v>2449.6974</v>
       </c>
       <c r="G180" t="n">
+        <v>998.4733333333334</v>
+      </c>
+      <c r="H180" t="n">
         <v>1008.576666666667</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7313,27 @@
         <v>2971.5121</v>
       </c>
       <c r="G181" t="n">
+        <v>998.1066666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>1007.876666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7357,27 @@
         <v>0.5</v>
       </c>
       <c r="G182" t="n">
+        <v>998.4400000000001</v>
+      </c>
+      <c r="H182" t="n">
         <v>1007.476666666667</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7401,27 @@
         <v>7.84</v>
       </c>
       <c r="G183" t="n">
+        <v>998.74</v>
+      </c>
+      <c r="H183" t="n">
         <v>1007.043333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7445,27 @@
         <v>3164.7844</v>
       </c>
       <c r="G184" t="n">
+        <v>999.6733333333334</v>
+      </c>
+      <c r="H184" t="n">
         <v>1006.81</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7489,27 @@
         <v>434.8389</v>
       </c>
       <c r="G185" t="n">
+        <v>1000.7</v>
+      </c>
+      <c r="H185" t="n">
         <v>1006.443333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7533,27 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
+        <v>1000.366666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>1006.093333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7577,27 @@
         <v>490</v>
       </c>
       <c r="G187" t="n">
+        <v>1001.233333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>1005.826666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7621,27 @@
         <v>3840.5908</v>
       </c>
       <c r="G188" t="n">
+        <v>1002.3</v>
+      </c>
+      <c r="H188" t="n">
         <v>1005.476666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7665,27 @@
         <v>122.4821</v>
       </c>
       <c r="G189" t="n">
+        <v>1002.706666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>1005.086666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7709,27 @@
         <v>420.7385</v>
       </c>
       <c r="G190" t="n">
+        <v>1001.773333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>1004.686666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7753,27 @@
         <v>0.5</v>
       </c>
       <c r="G191" t="n">
+        <v>1001.973333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>1004.47</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7797,27 @@
         <v>992.1919</v>
       </c>
       <c r="G192" t="n">
+        <v>1000.84</v>
+      </c>
+      <c r="H192" t="n">
         <v>1004.086666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7841,27 @@
         <v>5581.0795</v>
       </c>
       <c r="G193" t="n">
+        <v>999.7733333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>1003.686666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7885,27 @@
         <v>1949.0831</v>
       </c>
       <c r="G194" t="n">
+        <v>998.4733333333334</v>
+      </c>
+      <c r="H194" t="n">
         <v>1003.261666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7929,27 @@
         <v>2302.8262</v>
       </c>
       <c r="G195" t="n">
+        <v>998.3066666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>1002.82</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7973,27 @@
         <v>3609.012</v>
       </c>
       <c r="G196" t="n">
+        <v>997.9733333333334</v>
+      </c>
+      <c r="H196" t="n">
         <v>1002.336666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8017,27 @@
         <v>378.4078</v>
       </c>
       <c r="G197" t="n">
+        <v>996.9733333333334</v>
+      </c>
+      <c r="H197" t="n">
         <v>1001.853333333333</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8061,27 @@
         <v>708.4263999999999</v>
       </c>
       <c r="G198" t="n">
+        <v>995.9133333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>1001.305</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8105,27 @@
         <v>711.0326</v>
       </c>
       <c r="G199" t="n">
+        <v>994.7066666666667</v>
+      </c>
+      <c r="H199" t="n">
         <v>1000.753333333333</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8149,27 @@
         <v>14</v>
       </c>
       <c r="G200" t="n">
+        <v>993.9066666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>1000.436666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8193,27 @@
         <v>1415.9599</v>
       </c>
       <c r="G201" t="n">
+        <v>993.5733333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>1000.053333333333</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8237,27 @@
         <v>2864.3957</v>
       </c>
       <c r="G202" t="n">
+        <v>993.7066666666667</v>
+      </c>
+      <c r="H202" t="n">
         <v>999.9366666666666</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8281,27 @@
         <v>1719.6629</v>
       </c>
       <c r="G203" t="n">
+        <v>993.64</v>
+      </c>
+      <c r="H203" t="n">
         <v>999.67</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8325,27 @@
         <v>2631.5527</v>
       </c>
       <c r="G204" t="n">
+        <v>994.2666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>999.5533333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8369,27 @@
         <v>62.2341</v>
       </c>
       <c r="G205" t="n">
+        <v>995.1333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>999.42</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8413,27 @@
         <v>1.2093</v>
       </c>
       <c r="G206" t="n">
+        <v>995.2666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>999.2866666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8457,27 @@
         <v>936.8861000000001</v>
       </c>
       <c r="G207" t="n">
+        <v>996.8</v>
+      </c>
+      <c r="H207" t="n">
         <v>999.2866666666666</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8501,27 @@
         <v>250.8209</v>
       </c>
       <c r="G208" t="n">
+        <v>998.8</v>
+      </c>
+      <c r="H208" t="n">
         <v>999.6949999999999</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8545,27 @@
         <v>126.4718</v>
       </c>
       <c r="G209" t="n">
+        <v>1000.966666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>999.8283333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8589,27 @@
         <v>689.7017</v>
       </c>
       <c r="G210" t="n">
+        <v>1002.733333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>999.8616666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8633,27 @@
         <v>85.3856</v>
       </c>
       <c r="G211" t="n">
+        <v>1004.6</v>
+      </c>
+      <c r="H211" t="n">
         <v>999.895</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8677,27 @@
         <v>235.148</v>
       </c>
       <c r="G212" t="n">
+        <v>1006.266666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>1000.136666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8721,27 @@
         <v>132.1281</v>
       </c>
       <c r="G213" t="n">
+        <v>1007.593333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>1000.228333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8765,27 @@
         <v>136.6367</v>
       </c>
       <c r="G214" t="n">
+        <v>1008.333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>1000.32</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8809,27 @@
         <v>0.5</v>
       </c>
       <c r="G215" t="n">
+        <v>1009.466666666667</v>
+      </c>
+      <c r="H215" t="n">
         <v>1000.611666666667</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8853,27 @@
         <v>293.0451</v>
       </c>
       <c r="G216" t="n">
+        <v>1009.933333333333</v>
+      </c>
+      <c r="H216" t="n">
         <v>1000.561666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8897,27 @@
         <v>534.7063000000001</v>
       </c>
       <c r="G217" t="n">
+        <v>1009.666666666667</v>
+      </c>
+      <c r="H217" t="n">
         <v>1000.678333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8941,27 @@
         <v>194.707</v>
       </c>
       <c r="G218" t="n">
+        <v>1009.4</v>
+      </c>
+      <c r="H218" t="n">
         <v>1000.778333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8985,27 @@
         <v>81.3515</v>
       </c>
       <c r="G219" t="n">
+        <v>1009.333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>1000.928333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +9029,27 @@
         <v>36.635</v>
       </c>
       <c r="G220" t="n">
+        <v>1009</v>
+      </c>
+      <c r="H220" t="n">
         <v>1001.011666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +9073,27 @@
         <v>144.9481</v>
       </c>
       <c r="G221" t="n">
+        <v>1008.333333333333</v>
+      </c>
+      <c r="H221" t="n">
         <v>1000.828333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +9117,27 @@
         <v>534.0782</v>
       </c>
       <c r="G222" t="n">
+        <v>1007.133333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>1000.545</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +9161,27 @@
         <v>1715.8636</v>
       </c>
       <c r="G223" t="n">
+        <v>1005.48</v>
+      </c>
+      <c r="H223" t="n">
         <v>1000.515</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +9205,27 @@
         <v>401.2386</v>
       </c>
       <c r="G224" t="n">
+        <v>1003.76</v>
+      </c>
+      <c r="H224" t="n">
         <v>1000.51</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="L224" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +9249,27 @@
         <v>1089.7525</v>
       </c>
       <c r="G225" t="n">
+        <v>1001.74</v>
+      </c>
+      <c r="H225" t="n">
         <v>1000.313333333333</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +9293,27 @@
         <v>949.548</v>
       </c>
       <c r="G226" t="n">
+        <v>999.7733333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>1000.113333333333</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9337,29 @@
         <v>43.1696</v>
       </c>
       <c r="G227" t="n">
+        <v>998.4466666666668</v>
+      </c>
+      <c r="H227" t="n">
         <v>1000.031666666666</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="L227" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9383,29 @@
         <v>1115.4487</v>
       </c>
       <c r="G228" t="n">
+        <v>997.2466666666668</v>
+      </c>
+      <c r="H228" t="n">
         <v>999.8733333333331</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>990.1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9429,29 @@
         <v>600</v>
       </c>
       <c r="G229" t="n">
+        <v>996.0466666666669</v>
+      </c>
+      <c r="H229" t="n">
         <v>999.6899999999998</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>983</v>
+      </c>
+      <c r="L229" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9475,29 @@
         <v>4</v>
       </c>
       <c r="G230" t="n">
+        <v>994.3066666666668</v>
+      </c>
+      <c r="H230" t="n">
         <v>999.5949999999998</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>983</v>
+      </c>
+      <c r="L230" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9521,29 @@
         <v>4</v>
       </c>
       <c r="G231" t="n">
+        <v>992.8600000000001</v>
+      </c>
+      <c r="H231" t="n">
         <v>999.1833333333332</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>986.9</v>
+      </c>
+      <c r="L231" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9567,29 @@
         <v>538.9547</v>
       </c>
       <c r="G232" t="n">
+        <v>991.6800000000001</v>
+      </c>
+      <c r="H232" t="n">
         <v>999.0716666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>985.3</v>
+      </c>
+      <c r="L232" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9613,29 @@
         <v>309.0638</v>
       </c>
       <c r="G233" t="n">
+        <v>990.5</v>
+      </c>
+      <c r="H233" t="n">
         <v>998.9599999999999</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>985.3</v>
+      </c>
+      <c r="L233" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9659,29 @@
         <v>4356.8156</v>
       </c>
       <c r="G234" t="n">
+        <v>988.7933333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>998.775</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>985.3</v>
+      </c>
+      <c r="L234" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9705,29 @@
         <v>4</v>
       </c>
       <c r="G235" t="n">
+        <v>987.9933333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>998.475</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>980.4</v>
+      </c>
+      <c r="L235" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9751,29 @@
         <v>164.7631</v>
       </c>
       <c r="G236" t="n">
+        <v>987.5266666666666</v>
+      </c>
+      <c r="H236" t="n">
         <v>998.275</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>990</v>
+      </c>
+      <c r="L236" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9797,29 @@
         <v>161.215</v>
       </c>
       <c r="G237" t="n">
+        <v>989.3933333333333</v>
+      </c>
+      <c r="H237" t="n">
         <v>998.5416666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>990</v>
+      </c>
+      <c r="L237" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9843,27 @@
         <v>264.9883</v>
       </c>
       <c r="G238" t="n">
+        <v>991.3133333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>998.8416666666667</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9887,27 @@
         <v>9151.4967</v>
       </c>
       <c r="G239" t="n">
+        <v>995.0999999999999</v>
+      </c>
+      <c r="H239" t="n">
         <v>999.575</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9931,27 @@
         <v>8484.5174405</v>
       </c>
       <c r="G240" t="n">
+        <v>999.9866666666665</v>
+      </c>
+      <c r="H240" t="n">
         <v>1000.691666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9975,27 @@
         <v>1149.5488</v>
       </c>
       <c r="G241" t="n">
+        <v>1004.886666666667</v>
+      </c>
+      <c r="H241" t="n">
         <v>1001.808333333333</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +10019,27 @@
         <v>5927.90643437</v>
       </c>
       <c r="G242" t="n">
+        <v>1007.08</v>
+      </c>
+      <c r="H242" t="n">
         <v>1002.191666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +10063,27 @@
         <v>1961.7997</v>
       </c>
       <c r="G243" t="n">
+        <v>1007.293333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>1002.011666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +10107,27 @@
         <v>139.1128</v>
       </c>
       <c r="G244" t="n">
+        <v>1009.426666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>1002.128333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +10151,27 @@
         <v>646.321</v>
       </c>
       <c r="G245" t="n">
+        <v>1011.3</v>
+      </c>
+      <c r="H245" t="n">
         <v>1002.245</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +10195,27 @@
         <v>88.1377</v>
       </c>
       <c r="G246" t="n">
+        <v>1013.213333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>1002.395</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +10239,27 @@
         <v>932.6132</v>
       </c>
       <c r="G247" t="n">
+        <v>1015.126666666667</v>
+      </c>
+      <c r="H247" t="n">
         <v>1002.545</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +10283,27 @@
         <v>2782.9737</v>
       </c>
       <c r="G248" t="n">
+        <v>1017.973333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>1002.878333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +10327,27 @@
         <v>1681.6816</v>
       </c>
       <c r="G249" t="n">
+        <v>1021.146666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>1003.385</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +10371,27 @@
         <v>882.6825</v>
       </c>
       <c r="G250" t="n">
+        <v>1025.08</v>
+      </c>
+      <c r="H250" t="n">
         <v>1004.301666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +10415,27 @@
         <v>9451.2839</v>
       </c>
       <c r="G251" t="n">
+        <v>1028.813333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>1004.985</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +10459,27 @@
         <v>697.3964999999999</v>
       </c>
       <c r="G252" t="n">
+        <v>1030.28</v>
+      </c>
+      <c r="H252" t="n">
         <v>1005.901666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +10503,27 @@
         <v>274.2752</v>
       </c>
       <c r="G253" t="n">
+        <v>1030.813333333333</v>
+      </c>
+      <c r="H253" t="n">
         <v>1006.601666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10547,27 @@
         <v>614.6806</v>
       </c>
       <c r="G254" t="n">
+        <v>1029.48</v>
+      </c>
+      <c r="H254" t="n">
         <v>1007.326666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10591,27 @@
         <v>2</v>
       </c>
       <c r="G255" t="n">
+        <v>1026.08</v>
+      </c>
+      <c r="H255" t="n">
         <v>1007.635</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10635,27 @@
         <v>1169.9365</v>
       </c>
       <c r="G256" t="n">
+        <v>1023.88</v>
+      </c>
+      <c r="H256" t="n">
         <v>1008.285</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10679,27 @@
         <v>230.7808</v>
       </c>
       <c r="G257" t="n">
+        <v>1022.68</v>
+      </c>
+      <c r="H257" t="n">
         <v>1008.618333333333</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10723,27 @@
         <v>1015.3539</v>
       </c>
       <c r="G258" t="n">
+        <v>1023.053333333333</v>
+      </c>
+      <c r="H258" t="n">
         <v>1008.796666666667</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10767,27 @@
         <v>131.1937</v>
       </c>
       <c r="G259" t="n">
+        <v>1022.053333333333</v>
+      </c>
+      <c r="H259" t="n">
         <v>1008.965</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10811,27 @@
         <v>2959.4432</v>
       </c>
       <c r="G260" t="n">
+        <v>1022.386666666667</v>
+      </c>
+      <c r="H260" t="n">
         <v>1009.365</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10855,27 @@
         <v>2799.143</v>
       </c>
       <c r="G261" t="n">
+        <v>1023.853333333333</v>
+      </c>
+      <c r="H261" t="n">
         <v>1009.965</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10899,27 @@
         <v>68.1972</v>
       </c>
       <c r="G262" t="n">
+        <v>1024.92</v>
+      </c>
+      <c r="H262" t="n">
         <v>1010.348333333333</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10943,27 @@
         <v>4229.7355</v>
       </c>
       <c r="G263" t="n">
+        <v>1026.253333333333</v>
+      </c>
+      <c r="H263" t="n">
         <v>1011.031666666667</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10987,27 @@
         <v>2315.5944</v>
       </c>
       <c r="G264" t="n">
+        <v>1027.586666666667</v>
+      </c>
+      <c r="H264" t="n">
         <v>1011.715</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +11031,27 @@
         <v>5852.7443</v>
       </c>
       <c r="G265" t="n">
+        <v>1026.586666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>1012.165</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +11075,27 @@
         <v>3550.1865</v>
       </c>
       <c r="G266" t="n">
+        <v>1025.786666666667</v>
+      </c>
+      <c r="H266" t="n">
         <v>1012.615</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,19 +11119,28 @@
         <v>127.9061</v>
       </c>
       <c r="G267" t="n">
+        <v>1024.986666666667</v>
+      </c>
+      <c r="H267" t="n">
         <v>1012.948333333333</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
+      <c r="L267" t="n">
+        <v>992.6</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1.036708643965344</v>
       </c>
     </row>
     <row r="268">
@@ -9758,18 +11163,21 @@
         <v>0.48</v>
       </c>
       <c r="G268" t="n">
+        <v>1025.92</v>
+      </c>
+      <c r="H268" t="n">
         <v>1013.381666666667</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +11201,21 @@
         <v>494.1374</v>
       </c>
       <c r="G269" t="n">
+        <v>1026.786666666667</v>
+      </c>
+      <c r="H269" t="n">
         <v>1013.781666666667</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +11239,21 @@
         <v>244.4325</v>
       </c>
       <c r="G270" t="n">
+        <v>1029.32</v>
+      </c>
+      <c r="H270" t="n">
         <v>1014.281666666667</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +11277,21 @@
         <v>2.6535</v>
       </c>
       <c r="G271" t="n">
+        <v>1030.053333333333</v>
+      </c>
+      <c r="H271" t="n">
         <v>1014.648333333333</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +11315,21 @@
         <v>4929.9674</v>
       </c>
       <c r="G272" t="n">
+        <v>1029.72</v>
+      </c>
+      <c r="H272" t="n">
         <v>1014.481666666667</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +11353,21 @@
         <v>907.5426</v>
       </c>
       <c r="G273" t="n">
+        <v>1030.266666666667</v>
+      </c>
+      <c r="H273" t="n">
         <v>1014.465</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +11391,21 @@
         <v>171.1812</v>
       </c>
       <c r="G274" t="n">
+        <v>1031.133333333333</v>
+      </c>
+      <c r="H274" t="n">
         <v>1014.665</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +11429,21 @@
         <v>977.98964646</v>
       </c>
       <c r="G275" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H275" t="n">
         <v>1014.998333333333</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +11467,21 @@
         <v>405.6683</v>
       </c>
       <c r="G276" t="n">
+        <v>1029.933333333333</v>
+      </c>
+      <c r="H276" t="n">
         <v>1014.965</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +11505,21 @@
         <v>808.5549999999999</v>
       </c>
       <c r="G277" t="n">
+        <v>1027.866666666667</v>
+      </c>
+      <c r="H277" t="n">
         <v>1014.898333333333</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +11543,21 @@
         <v>310.5739</v>
       </c>
       <c r="G278" t="n">
+        <v>1024.6</v>
+      </c>
+      <c r="H278" t="n">
         <v>1014.831666666667</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +11581,21 @@
         <v>1568.2753</v>
       </c>
       <c r="G279" t="n">
+        <v>1020.933333333333</v>
+      </c>
+      <c r="H279" t="n">
         <v>1014.615</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11619,21 @@
         <v>348.0556</v>
       </c>
       <c r="G280" t="n">
+        <v>1018.286666666667</v>
+      </c>
+      <c r="H280" t="n">
         <v>1014.486666666667</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11657,21 @@
         <v>10.1053</v>
       </c>
       <c r="G281" t="n">
+        <v>1017.22</v>
+      </c>
+      <c r="H281" t="n">
         <v>1014.836666666667</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11695,21 @@
         <v>3425.8961</v>
       </c>
       <c r="G282" t="n">
+        <v>1014.486666666667</v>
+      </c>
+      <c r="H282" t="n">
         <v>1014.786666666667</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11733,21 @@
         <v>1095.3608</v>
       </c>
       <c r="G283" t="n">
+        <v>1010.953333333333</v>
+      </c>
+      <c r="H283" t="n">
         <v>1014.75</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,24 +11771,21 @@
         <v>83.78189999999999</v>
       </c>
       <c r="G284" t="n">
+        <v>1009.153333333333</v>
+      </c>
+      <c r="H284" t="n">
         <v>1015.13</v>
       </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M284" t="n">
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10359,22 +11809,21 @@
         <v>109.0376</v>
       </c>
       <c r="G285" t="n">
+        <v>1007.22</v>
+      </c>
+      <c r="H285" t="n">
         <v>1015.651666666667</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M285" t="n">
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10398,22 +11847,21 @@
         <v>0.6936</v>
       </c>
       <c r="G286" t="n">
+        <v>1006.02</v>
+      </c>
+      <c r="H286" t="n">
         <v>1016.21</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M286" t="n">
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10437,22 +11885,21 @@
         <v>364.5376</v>
       </c>
       <c r="G287" t="n">
+        <v>1006.82</v>
+      </c>
+      <c r="H287" t="n">
         <v>1016.575</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M287" t="n">
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10476,22 +11923,21 @@
         <v>1583.559</v>
       </c>
       <c r="G288" t="n">
+        <v>1008.42</v>
+      </c>
+      <c r="H288" t="n">
         <v>1017.258333333334</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M288" t="n">
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10515,22 +11961,21 @@
         <v>641.0475</v>
       </c>
       <c r="G289" t="n">
+        <v>1009.886666666667</v>
+      </c>
+      <c r="H289" t="n">
         <v>1018.125</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M289" t="n">
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10554,22 +11999,21 @@
         <v>0.5276999999999999</v>
       </c>
       <c r="G290" t="n">
+        <v>1010.02</v>
+      </c>
+      <c r="H290" t="n">
         <v>1018.926666666667</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M290" t="n">
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10593,22 +12037,21 @@
         <v>467.9022</v>
       </c>
       <c r="G291" t="n">
+        <v>1011.686666666667</v>
+      </c>
+      <c r="H291" t="n">
         <v>1019.671666666667</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M291" t="n">
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10632,22 +12075,21 @@
         <v>44.3068</v>
       </c>
       <c r="G292" t="n">
+        <v>1013.753333333333</v>
+      </c>
+      <c r="H292" t="n">
         <v>1020.416666666667</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M292" t="n">
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10671,22 +12113,401 @@
         <v>137.9655</v>
       </c>
       <c r="G293" t="n">
+        <v>1015.353333333333</v>
+      </c>
+      <c r="H293" t="n">
         <v>1021.045</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M293" t="n">
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F294" t="n">
+        <v>108.7399</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1017.286666666667</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1021.738333333333</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F295" t="n">
+        <v>39.7852</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1019.133333333333</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1022.271666666667</v>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1016</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F296" t="n">
+        <v>469.2659</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1019</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1022.705</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1016</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3123.3889</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1021</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1022.688333333333</v>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F298" t="n">
+        <v>344.9581</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1023</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1022.671666666667</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F299" t="n">
+        <v>138.1667</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1023.333333333333</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1022.188333333333</v>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1023</v>
+      </c>
+      <c r="F300" t="n">
+        <v>5.7324</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1023.866666666667</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1021.621666666667</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1497.0413</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1024.2</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1021.038333333333</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1022</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F302" t="n">
+        <v>45.7428</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1024.866666666667</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1021.021666666667</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1022</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2170.278</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1024.8</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1021.635</v>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-20 BackTest BHP.xlsx
+++ b/BackTest/2020-01-20 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>23573.45514074001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>17809.55483882001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>17804.55483882001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>17786.52503882001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>17576.53093882001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>17754.69743882001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>17755.66175897001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16904.33335897001</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8305.296358970008</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>7817.046158970008</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>34482.83995897001</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>34480.83995897001</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>34474.83995897001</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>34389.47855897001</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>34402.47855897001</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33986.01765897001</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>34986.45745897001</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>34684.45745897001</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>34803.45745897001</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>34206.87765897001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>35585.00455897002</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>35552.00455897002</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>35568.00455897002</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>35559.01035897002</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>35550.01615897001</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>35739.92465897001</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>35547.08325897001</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>35437.44225897001</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>34971.86745897001</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>34972.86745897001</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>33752.98005897001</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>35337.88215897001</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>35338.45595897001</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>34449.01615897001</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>34467.32505897001</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>32976.20355897001</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>32931.40935897001</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>32911.40935897001</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>34864.27775897001</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>38609.75955897001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>37307.38035897001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>37307.38035897001</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>37389.39065897001</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>37389.39065897001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>37387.00775897002</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>37407.49075897002</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>37369.22795897002</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>37415.47475897002</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>37173.11445897002</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>37129.71485897002</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>37070.18395897002</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>37166.05785897002</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>37166.05785897002</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>37166.05785897002</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>37168.54615897002</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>37166.58345897002</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>37685.76398193002</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>37605.77478193002</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>37606.27478193002</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>35574.03018193002</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>35609.08228193002</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>30203.43508193002</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>30651.43118193002</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>28528.28518193002</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>29881.89538193002</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>29881.89538193002</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>29438.31268193002</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>28951.13538193002</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -8272,11 +8272,17 @@
         <v>-2287.786587619972</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>990</v>
+      </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8315,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +8348,17 @@
         <v>-2295.126587619972</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>1000</v>
+      </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +8387,17 @@
         <v>869.6578123800277</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>997</v>
+      </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +8426,17 @@
         <v>869.6578123800277</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1008</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +8465,17 @@
         <v>859.6578123800277</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1008</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8508,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8545,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8582,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8619,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8656,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8693,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8730,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8767,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8804,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8841,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8874,17 @@
         <v>-10276.66468761997</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>985</v>
+      </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +8913,17 @@
         <v>-10985.09108761997</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>985</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8952,17 @@
         <v>-10274.05848761997</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>981.1</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +8991,17 @@
         <v>-10260.05848761997</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>989.9</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9030,17 @@
         <v>-8844.098587619972</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>996</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9069,17 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1000</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9108,17 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1007</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9147,17 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1007</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9186,17 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1007</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9225,17 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1007</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9264,17 @@
         <v>-5042.816787619972</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1007</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9303,17 @@
         <v>-4791.995887619973</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1014</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9342,17 @@
         <v>-4665.524087619972</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1020</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9385,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9422,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9459,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9496,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9533,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9570,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9607,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9640,17 @@
         <v>-6635.138887619972</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1007</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9683,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9716,17 @@
         <v>-6553.787387619972</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1003</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9759,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9796,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9833,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9866,17 @@
         <v>-8985.312287619972</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>996</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9905,17 @@
         <v>-8985.312287619972</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>995.2</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +9944,17 @@
         <v>-10075.06478761997</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>995.2</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +9983,17 @@
         <v>-11024.61278761997</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>983.7</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10022,17 @@
         <v>-10981.44318761997</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>983.5</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10061,17 @@
         <v>-12096.89188761998</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>990.1</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10100,17 @@
         <v>-12096.89188761998</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>983</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,15 +10139,17 @@
         <v>-12092.89188761998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>983</v>
       </c>
-      <c r="J288" t="n">
-        <v>983</v>
-      </c>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,17 +10178,15 @@
         <v>-12096.89188761998</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>986.9</v>
       </c>
-      <c r="J289" t="n">
-        <v>983</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L289" t="n">
@@ -9967,17 +10217,15 @@
         <v>-12096.89188761998</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>985.3</v>
       </c>
-      <c r="J290" t="n">
-        <v>983</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L290" t="n">
@@ -10008,15 +10256,17 @@
         <v>-12096.89188761998</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>985.3</v>
       </c>
-      <c r="J291" t="n">
-        <v>985.3</v>
-      </c>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10045,17 +10295,15 @@
         <v>-16453.70748761998</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>985.3</v>
       </c>
-      <c r="J292" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10086,14 +10334,12 @@
         <v>-16449.70748761998</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>980.4</v>
       </c>
-      <c r="J293" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10127,14 +10373,12 @@
         <v>-16449.70748761998</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>990</v>
       </c>
-      <c r="J294" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10168,14 +10412,12 @@
         <v>-16288.49248761998</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>990</v>
       </c>
-      <c r="J295" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10209,14 +10451,12 @@
         <v>-16288.49248761998</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>1024</v>
       </c>
-      <c r="J296" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10250,12 +10490,12 @@
         <v>-7136.995787619977</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10289,12 +10529,12 @@
         <v>1347.521652880023</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1052</v>
+      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10331,9 +10571,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10370,9 +10608,7 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10409,9 +10645,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10448,9 +10682,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10487,9 +10719,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10526,9 +10756,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10565,9 +10793,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10604,9 +10830,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10640,12 +10864,12 @@
         <v>-3708.235681489978</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>1028</v>
+      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10682,9 +10906,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10721,9 +10943,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10760,9 +10980,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10799,9 +11017,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10838,9 +11054,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,9 +11091,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10913,12 +11125,10 @@
         <v>-11383.17578148998</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10955,9 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10994,9 +11202,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11030,12 +11236,10 @@
         <v>-12498.11678148998</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11071,10 +11275,10 @@
       <c r="H318" t="n">
         <v>1</v>
       </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="I318" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11108,12 +11312,12 @@
         <v>-6739.53058148998</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>1020</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11147,12 +11351,12 @@
         <v>-6807.72778148998</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>1036</v>
+      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11189,9 +11393,7 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11228,9 +11430,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11267,9 +11467,7 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11306,9 +11504,7 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,9 +11541,7 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11381,12 +11575,10 @@
         <v>-8430.256581489981</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11423,9 +11615,7 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,9 +11652,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11501,9 +11689,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11540,9 +11726,7 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11579,9 +11763,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11618,9 +11800,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11657,9 +11837,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11696,9 +11874,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11732,12 +11908,12 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>1005</v>
+      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11771,12 +11947,12 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>999</v>
+      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11810,12 +11986,12 @@
         <v>-15734.77513502998</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>999</v>
+      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11849,12 +12025,12 @@
         <v>-15386.71953502998</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>993</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11888,12 +12064,12 @@
         <v>-15376.61423502998</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>994.3</v>
+      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11927,12 +12103,12 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>1018</v>
+      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11966,12 +12142,12 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>993</v>
+      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12005,12 +12181,12 @@
         <v>-18718.72843502998</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>993</v>
+      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12044,12 +12220,12 @@
         <v>-18827.76603502998</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>1018</v>
+      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12083,12 +12259,12 @@
         <v>-18827.07243502998</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>1015</v>
+      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12122,12 +12298,12 @@
         <v>-19191.61003502998</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>1017</v>
+      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,12 +12337,12 @@
         <v>-17608.05103502998</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>985.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>1012</v>
+      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,9 +12379,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,9 +12416,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12281,9 +12453,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12320,9 +12490,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12359,9 +12527,7 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12398,9 +12564,7 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12437,9 +12601,7 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12476,9 +12638,7 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12515,9 +12675,7 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12554,9 +12712,7 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12593,9 +12749,7 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12632,9 +12786,7 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,9 +12823,7 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12710,9 +12860,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12749,9 +12897,7 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>985.3</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12763,6 +12909,6 @@
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BHP.xlsx
+++ b/BackTest/2020-01-20 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>23573.45514074001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>17804.55483882001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>17786.52503882001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>17576.53093882001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>17754.69743882001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>17755.66175897001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>16904.33335897001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>8305.296358970008</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>7817.046158970008</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>34482.83995897001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>34480.83995897001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>34474.83995897001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>34389.47855897001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>34402.47855897001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>33986.01765897001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>34803.45745897001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>35585.00455897002</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>35552.00455897002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>35568.00455897002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>35559.01035897002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>35550.01615897001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>35739.92465897001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>35547.08325897001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>35437.44225897001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>34971.86745897001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>34972.86745897001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>33750.98005897001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>33752.98005897001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>35337.88215897001</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>35338.45595897001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>34449.01615897001</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>34467.32505897001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>32976.20355897001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>32931.40935897001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>32911.40935897001</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>32495.58155897001</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>38609.75955897001</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>37307.38035897001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>37307.38035897001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>37389.39065897001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>37387.00775897002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -8272,17 +8272,11 @@
         <v>-2287.786587619972</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8315,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8348,17 +8338,11 @@
         <v>-2295.126587619972</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8387,17 +8371,11 @@
         <v>869.6578123800277</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8426,17 +8404,11 @@
         <v>869.6578123800277</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>1008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8465,17 +8437,11 @@
         <v>859.6578123800277</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>1008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8508,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8545,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8582,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8619,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8656,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8693,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8730,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8804,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8841,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8874,17 +8800,11 @@
         <v>-10276.66468761997</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8913,17 +8833,11 @@
         <v>-10985.09108761997</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8952,17 +8866,11 @@
         <v>-10274.05848761997</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>981.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8991,17 +8899,11 @@
         <v>-10260.05848761997</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>989.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9030,17 +8932,11 @@
         <v>-8844.098587619972</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9069,17 +8965,11 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9108,17 +8998,11 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>1007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9147,17 +9031,11 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9186,17 +9064,11 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>1007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9225,17 +9097,11 @@
         <v>-5979.702887619972</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9264,17 +9130,11 @@
         <v>-5042.816787619972</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9303,17 +9163,11 @@
         <v>-4791.995887619973</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9342,17 +9196,11 @@
         <v>-4665.524087619972</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9459,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9496,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9533,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9570,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9640,17 +9460,11 @@
         <v>-6635.138887619972</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>1007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9683,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9716,17 +9526,11 @@
         <v>-6553.787387619972</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1003</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9759,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9833,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9866,17 +9658,11 @@
         <v>-8985.312287619972</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9905,17 +9691,11 @@
         <v>-8985.312287619972</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>995.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9944,17 +9724,11 @@
         <v>-10075.06478761997</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>995.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9991,7 +9765,7 @@
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L284" t="n">
@@ -10451,11 +10225,9 @@
         <v>-16288.49248761998</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>1024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10490,11 +10262,9 @@
         <v>-7136.995787619977</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>1024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10529,11 +10299,9 @@
         <v>1347.521652880023</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>1052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -10568,18 +10336,16 @@
         <v>1347.521652880023</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
@@ -10605,15 +10371,11 @@
         <v>-4580.384781489977</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10642,15 +10404,11 @@
         <v>-6542.184481489978</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10679,15 +10437,11 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10716,15 +10470,11 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10757,11 +10507,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10794,11 +10540,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10831,11 +10573,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10864,17 +10602,11 @@
         <v>-3708.235681489978</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>1028</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10903,15 +10635,11 @@
         <v>-2825.553181489978</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10940,15 +10668,11 @@
         <v>-12276.83708148998</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +10705,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11018,11 +10738,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11055,11 +10771,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11092,11 +10804,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +10837,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11166,11 +10870,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11203,11 +10903,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11240,11 +10936,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11273,17 +10965,11 @@
         <v>-9538.67358148998</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11312,17 +10998,11 @@
         <v>-6739.53058148998</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>1020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11351,17 +11031,11 @@
         <v>-6807.72778148998</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>1036</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11394,11 +11068,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11427,15 +11097,11 @@
         <v>-2577.99228148998</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11464,15 +11130,11 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11501,15 +11163,11 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11538,15 +11196,11 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11575,15 +11229,11 @@
         <v>-8430.256581489981</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11612,15 +11262,11 @@
         <v>-8924.39398148998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11649,15 +11295,11 @@
         <v>-9168.826481489981</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11686,15 +11328,11 @@
         <v>-9171.479981489982</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11723,15 +11361,11 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11760,15 +11394,11 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11797,15 +11427,11 @@
         <v>-13930.26618148998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11834,15 +11460,11 @@
         <v>-12952.27653502998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11871,15 +11493,11 @@
         <v>-13357.94483502998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11908,17 +11526,11 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>1005</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11947,17 +11559,11 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11986,17 +11592,11 @@
         <v>-15734.77513502998</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12025,17 +11625,11 @@
         <v>-15386.71953502998</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12064,17 +11658,11 @@
         <v>-15376.61423502998</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>994.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12103,17 +11691,11 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>1018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12142,17 +11724,11 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>993</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12181,17 +11757,11 @@
         <v>-18718.72843502998</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>993</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12220,17 +11790,11 @@
         <v>-18827.76603502998</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>1018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12259,17 +11823,11 @@
         <v>-18827.07243502998</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>1015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12298,17 +11856,11 @@
         <v>-19191.61003502998</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>1017</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12337,17 +11889,11 @@
         <v>-17608.05103502998</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>1012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12380,11 +11926,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12417,11 +11959,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +11992,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12491,11 +12025,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12528,11 +12058,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12565,11 +12091,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12602,11 +12124,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12639,11 +12157,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12676,11 +12190,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12713,11 +12223,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12750,11 +12256,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12787,11 +12289,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12824,11 +12322,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12861,11 +12355,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12898,17 +12388,13 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
       <c r="M361" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest BHP.xlsx
+++ b/BackTest/2020-01-20 BackTest BHP.xlsx
@@ -2068,7 +2068,7 @@
         <v>17128.31555897001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>17125.31555897001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>17128.31555897001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>16911.76815897001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>16327.76815897001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>22480.22905897001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>22470.22905897001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>22469.22905897001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>22543.59915897001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>22540.59915897001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>30021.14565897001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>33249.27415897002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>34559.83995897001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>33987.01765897001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>33987.01765897001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>34756.45745897001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>34756.45745897001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>34986.45745897001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>34684.45745897001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>34206.87765897001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>32496.58155897001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>34864.27775897001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>37389.39065897001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>37407.49075897002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>37369.22795897002</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>37415.47475897002</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>37070.18405897002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>37432.87115897003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>37685.76398193002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>37858.66758193002</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>37605.77478193002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>37606.27478193002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>35574.03018193002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -9757,95 +9757,89 @@
         <v>-11024.61278761997</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>983.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>995</v>
+      </c>
+      <c r="C285" t="n">
+        <v>990.1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>995</v>
+      </c>
+      <c r="E285" t="n">
+        <v>990.1</v>
+      </c>
+      <c r="F285" t="n">
+        <v>43.1696</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-10981.44318761997</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="J285" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>984.6</v>
+      </c>
+      <c r="C286" t="n">
+        <v>983</v>
+      </c>
+      <c r="D286" t="n">
+        <v>984.6</v>
+      </c>
+      <c r="E286" t="n">
+        <v>983</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1115.4487</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-12096.89188761998</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>990.1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>995</v>
-      </c>
-      <c r="C285" t="n">
-        <v>990.1</v>
-      </c>
-      <c r="D285" t="n">
-        <v>995</v>
-      </c>
-      <c r="E285" t="n">
-        <v>990.1</v>
-      </c>
-      <c r="F285" t="n">
-        <v>43.1696</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-10981.44318761997</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>983.5</v>
-      </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>984.6</v>
-      </c>
-      <c r="C286" t="n">
-        <v>983</v>
-      </c>
-      <c r="D286" t="n">
-        <v>984.6</v>
-      </c>
-      <c r="E286" t="n">
-        <v>983</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1115.4487</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-12096.89188761998</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>990.1</v>
-      </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9879,7 +9873,9 @@
       <c r="I287" t="n">
         <v>983</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,7 +9914,9 @@
       <c r="I288" t="n">
         <v>983</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9957,7 +9955,9 @@
       <c r="I289" t="n">
         <v>986.9</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9996,7 +9996,9 @@
       <c r="I290" t="n">
         <v>985.3</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10035,7 +10037,9 @@
       <c r="I291" t="n">
         <v>985.3</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10074,7 +10078,9 @@
       <c r="I292" t="n">
         <v>985.3</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10113,7 +10119,9 @@
       <c r="I293" t="n">
         <v>980.4</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10152,7 +10160,9 @@
       <c r="I294" t="n">
         <v>990</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10191,7 +10201,9 @@
       <c r="I295" t="n">
         <v>990</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10225,10 +10237,14 @@
         <v>-16288.49248761998</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J296" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,10 +10278,14 @@
         <v>-7136.995787619977</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J297" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10302,7 +10322,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10336,16 +10358,20 @@
         <v>1347.521652880023</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>983.5</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
       <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
@@ -10371,11 +10397,17 @@
         <v>-4580.384781489977</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10404,11 +10436,17 @@
         <v>-6542.184481489978</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10437,11 +10475,17 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10470,11 +10514,17 @@
         <v>-6403.071681489978</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10506,8 +10556,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10539,8 +10595,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +10634,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10602,11 +10670,17 @@
         <v>-3708.235681489978</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10635,11 +10709,17 @@
         <v>-2825.553181489978</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10668,11 +10748,17 @@
         <v>-12276.83708148998</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10704,8 +10790,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10737,8 +10829,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10770,8 +10868,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10803,8 +10907,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10836,8 +10946,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10869,8 +10985,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10902,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10935,8 +11063,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10968,8 +11102,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11001,8 +11141,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11034,8 +11180,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11067,8 +11219,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11097,11 +11255,17 @@
         <v>-2577.99228148998</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11130,11 +11294,17 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11163,11 +11333,17 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11196,11 +11372,17 @@
         <v>-8430.73658148998</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11229,11 +11411,17 @@
         <v>-8430.256581489981</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11262,11 +11450,17 @@
         <v>-8924.39398148998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11295,11 +11489,17 @@
         <v>-9168.826481489981</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +11528,17 @@
         <v>-9171.479981489982</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11361,11 +11567,17 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11394,11 +11606,17 @@
         <v>-14101.44738148998</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +11645,17 @@
         <v>-13930.26618148998</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11460,11 +11684,17 @@
         <v>-12952.27653502998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11493,11 +11723,17 @@
         <v>-13357.94483502998</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11526,11 +11762,17 @@
         <v>-14166.49983502998</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11562,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11595,8 +11843,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11628,8 +11882,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11661,8 +11921,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11694,8 +11960,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11724,11 +11996,17 @@
         <v>-18802.51033502998</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11760,8 +12038,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11793,8 +12077,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11826,8 +12116,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11859,8 +12155,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11892,8 +12194,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11925,8 +12233,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11958,8 +12272,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11991,8 +12311,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12024,8 +12350,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12057,8 +12389,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12090,8 +12428,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12123,8 +12467,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12156,8 +12506,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12189,8 +12545,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12222,8 +12584,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12255,8 +12623,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12288,8 +12662,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12321,8 +12701,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12354,8 +12740,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12387,8 +12779,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
